--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91273818755096</v>
+        <v>20.91273818755103</v>
       </c>
       <c r="C2">
         <v>15.25042420106342</v>
       </c>
       <c r="D2">
-        <v>3.376057624135156</v>
+        <v>3.37605762413529</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.92745390100828</v>
+        <v>39.92745390100835</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.36960222128361</v>
+        <v>25.36960222128364</v>
       </c>
       <c r="I2">
-        <v>11.51025561270342</v>
+        <v>11.5102556127034</v>
       </c>
       <c r="J2">
-        <v>18.69629951174193</v>
+        <v>18.69629951174196</v>
       </c>
       <c r="K2">
-        <v>17.61203699543031</v>
+        <v>17.61203699543032</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.41598419417599</v>
+        <v>19.41598419417596</v>
       </c>
       <c r="C3">
-        <v>14.14960757091485</v>
+        <v>14.14960757091491</v>
       </c>
       <c r="D3">
-        <v>3.407181041794791</v>
+        <v>3.407181041794657</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.81782318121077</v>
+        <v>37.81782318121079</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.4042723396212</v>
+        <v>24.40427233962127</v>
       </c>
       <c r="I3">
-        <v>10.83480238459887</v>
+        <v>10.83480238459886</v>
       </c>
       <c r="J3">
-        <v>17.3831777285708</v>
+        <v>17.38317772857077</v>
       </c>
       <c r="K3">
-        <v>16.32403271536421</v>
+        <v>16.32403271536422</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45129065793904</v>
+        <v>18.45129065793914</v>
       </c>
       <c r="C4">
-        <v>13.44144287748926</v>
+        <v>13.44144287748902</v>
       </c>
       <c r="D4">
-        <v>3.425685780914528</v>
+        <v>3.425685780914462</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.51103358347722</v>
+        <v>36.51103358347716</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.82096733531036</v>
+        <v>23.82096733531026</v>
       </c>
       <c r="I4">
         <v>10.41645286181878</v>
@@ -515,7 +515,7 @@
         <v>16.53748518116677</v>
       </c>
       <c r="K4">
-        <v>15.49715586012421</v>
+        <v>15.49715586012418</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04645491109111</v>
+        <v>18.0464549110911</v>
       </c>
       <c r="C5">
-        <v>13.14456122076148</v>
+        <v>13.14456122076135</v>
       </c>
       <c r="D5">
-        <v>3.433092418103673</v>
+        <v>3.433092418103873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.97596295918297</v>
+        <v>35.97596295918309</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.58569116570933</v>
+        <v>23.58569116570947</v>
       </c>
       <c r="I5">
-        <v>10.24452092732809</v>
+        <v>10.2445209273281</v>
       </c>
       <c r="J5">
-        <v>16.18274385084647</v>
+        <v>16.1827438508464</v>
       </c>
       <c r="K5">
-        <v>15.15089197922764</v>
+        <v>15.15089197922762</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.97851829510912</v>
+        <v>17.9785182951091</v>
       </c>
       <c r="C6">
-        <v>13.09475781491982</v>
+        <v>13.09475781491993</v>
       </c>
       <c r="D6">
-        <v>3.434314671713227</v>
+        <v>3.434314671713159</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.88697377227043</v>
+        <v>35.88697377227039</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.54677250833883</v>
+        <v>23.54677250833877</v>
       </c>
       <c r="I6">
-        <v>10.21588743475801</v>
+        <v>10.21588743475802</v>
       </c>
       <c r="J6">
-        <v>16.12322289571647</v>
+        <v>16.12322289571651</v>
       </c>
       <c r="K6">
-        <v>15.09282639271697</v>
+        <v>15.09282639271698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.44587862692981</v>
+        <v>18.44587862692982</v>
       </c>
       <c r="C7">
-        <v>13.43747286658511</v>
+        <v>13.43747286658504</v>
       </c>
       <c r="D7">
-        <v>3.425786190288151</v>
+        <v>3.425786190288083</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.50382718548671</v>
+        <v>36.50382718548668</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.81778439870445</v>
+        <v>23.81778439870439</v>
       </c>
       <c r="I7">
-        <v>10.41413986013101</v>
+        <v>10.41413986013099</v>
       </c>
       <c r="J7">
-        <v>16.53274222193528</v>
+        <v>16.53274222193523</v>
       </c>
       <c r="K7">
-        <v>15.49252400694061</v>
+        <v>15.49252400694056</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40599534538505</v>
+        <v>20.40599534538497</v>
       </c>
       <c r="C8">
-        <v>14.87744069877295</v>
+        <v>14.8774406987729</v>
       </c>
       <c r="D8">
-        <v>3.386925990217944</v>
+        <v>3.386925990217943</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.03482766330853</v>
+        <v>25.03482766330861</v>
       </c>
       <c r="I8">
-        <v>11.27601551404479</v>
+        <v>11.27601551404476</v>
       </c>
       <c r="J8">
-        <v>18.25159323953008</v>
+        <v>18.25159323953</v>
       </c>
       <c r="K8">
-        <v>17.17525987647098</v>
+        <v>17.17525987647095</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.89863996812126</v>
+        <v>23.89863996812127</v>
       </c>
       <c r="C9">
-        <v>17.45454920926742</v>
+        <v>17.45454920926727</v>
       </c>
       <c r="D9">
-        <v>3.304998938723427</v>
+        <v>3.304998938723496</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.39638812363258</v>
+        <v>44.39638812363248</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.49576924077013</v>
+        <v>27.49576924077007</v>
       </c>
       <c r="I9">
         <v>13.23638207273191</v>
       </c>
       <c r="J9">
-        <v>21.31939739361778</v>
+        <v>21.31939739361776</v>
       </c>
       <c r="K9">
         <v>20.2013146019361</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26823026609775</v>
+        <v>26.26823026609767</v>
       </c>
       <c r="C10">
-        <v>19.21210699129518</v>
+        <v>19.21210699129507</v>
       </c>
       <c r="D10">
-        <v>3.239835416654609</v>
+        <v>3.239835416654676</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.15376896073943</v>
+        <v>48.15376896073937</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.35302928969402</v>
+        <v>29.35302928969396</v>
       </c>
       <c r="I10">
-        <v>14.62673176541381</v>
+        <v>14.62673176541378</v>
       </c>
       <c r="J10">
-        <v>23.40439957649879</v>
+        <v>23.40439957649872</v>
       </c>
       <c r="K10">
-        <v>22.27678186948692</v>
+        <v>22.27678186948686</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.30811058100839</v>
+        <v>27.30811058100843</v>
       </c>
       <c r="C11">
-        <v>19.9859477259833</v>
+        <v>19.98594772598342</v>
       </c>
       <c r="D11">
-        <v>3.208711625078892</v>
+        <v>3.208711625078759</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.85421746106617</v>
+        <v>49.85421746106633</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.21097490093469</v>
+        <v>30.21097490093481</v>
       </c>
       <c r="I11">
-        <v>15.24312533164979</v>
+        <v>15.24312533164978</v>
       </c>
       <c r="J11">
-        <v>24.3203412397513</v>
+        <v>24.32034123975133</v>
       </c>
       <c r="K11">
-        <v>23.19390340650405</v>
+        <v>23.19390340650403</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.69685577613383</v>
+        <v>27.69685577613384</v>
       </c>
       <c r="C12">
-        <v>20.27565762061803</v>
+        <v>20.27565762061806</v>
       </c>
       <c r="D12">
-        <v>3.196672838977204</v>
+        <v>3.196672838977272</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.49743103058621</v>
+        <v>50.49743103058613</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.53805261207561</v>
+        <v>30.53805261207555</v>
       </c>
       <c r="I12">
         <v>15.47458840411128</v>
       </c>
       <c r="J12">
-        <v>24.66290615466814</v>
+        <v>24.66290615466815</v>
       </c>
       <c r="K12">
-        <v>23.53780375325006</v>
+        <v>23.53780375325005</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.61334879186664</v>
+        <v>27.61334879186662</v>
       </c>
       <c r="C13">
-        <v>20.21340493338265</v>
+        <v>20.2134049333827</v>
       </c>
       <c r="D13">
-        <v>3.199277563871968</v>
+        <v>3.199277563872033</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.35892387651184</v>
+        <v>50.35892387651173</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.46750685380269</v>
+        <v>30.4675068538026</v>
       </c>
       <c r="I13">
         <v>15.42481911106054</v>
       </c>
       <c r="J13">
-        <v>24.58931216148123</v>
+        <v>24.58931216148125</v>
       </c>
       <c r="K13">
-        <v>23.46388091488758</v>
+        <v>23.4638809148876</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34019104743173</v>
+        <v>27.34019104743165</v>
       </c>
       <c r="C14">
-        <v>20.00984670928931</v>
+        <v>20.00984670928927</v>
       </c>
       <c r="D14">
-        <v>3.207726508261976</v>
+        <v>3.207726508261911</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.90714529728378</v>
+        <v>49.90714529728365</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.23783764243504</v>
+        <v>30.23783764243499</v>
       </c>
       <c r="I14">
-        <v>15.2622047764969</v>
+        <v>15.26220477649692</v>
       </c>
       <c r="J14">
-        <v>24.34860759859866</v>
+        <v>24.34860759859861</v>
       </c>
       <c r="K14">
-        <v>23.22226121191735</v>
+        <v>23.22226121191731</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.17223245311891</v>
+        <v>27.17223245311907</v>
       </c>
       <c r="C15">
-        <v>19.88473999244746</v>
+        <v>19.88473999244751</v>
       </c>
       <c r="D15">
-        <v>3.212867496347256</v>
+        <v>3.212867496347191</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.63034563514348</v>
+        <v>49.63034563514368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.09745535728379</v>
+        <v>30.09745535728388</v>
       </c>
       <c r="I15">
-        <v>15.16235633342565</v>
+        <v>15.16235633342562</v>
       </c>
       <c r="J15">
-        <v>24.20062421171433</v>
+        <v>24.20062421171447</v>
       </c>
       <c r="K15">
         <v>23.07383613738985</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.19954179958277</v>
+        <v>26.19954179958276</v>
       </c>
       <c r="C16">
-        <v>19.16104797100186</v>
+        <v>19.16104797100205</v>
       </c>
       <c r="D16">
-        <v>3.241836368539277</v>
+        <v>3.241836368539345</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.04250632401629</v>
+        <v>48.0425063240163</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.29724773551603</v>
+        <v>29.29724773551604</v>
       </c>
       <c r="I16">
-        <v>14.58615492098294</v>
+        <v>14.58615492098293</v>
       </c>
       <c r="J16">
-        <v>23.34391847207343</v>
+        <v>23.34391847207349</v>
       </c>
       <c r="K16">
-        <v>22.21634242586449</v>
+        <v>22.21634242586454</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59337201565588</v>
+        <v>25.59337201565585</v>
       </c>
       <c r="C17">
-        <v>18.71075260001272</v>
+        <v>18.71075260001278</v>
       </c>
       <c r="D17">
-        <v>3.259202197097697</v>
+        <v>3.259202197097562</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.80988187457753</v>
+        <v>28.80988187457754</v>
       </c>
       <c r="I17">
         <v>14.22879402671652</v>
       </c>
       <c r="J17">
-        <v>22.81028793000367</v>
+        <v>22.81028793000363</v>
       </c>
       <c r="K17">
-        <v>21.68370403329799</v>
+        <v>21.68370403329796</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.24110736194131</v>
+        <v>25.24110736194135</v>
       </c>
       <c r="C18">
-        <v>18.4493125505368</v>
+        <v>18.44931255053683</v>
       </c>
       <c r="D18">
-        <v>3.269053950383977</v>
+        <v>3.269053950384043</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.50424434001108</v>
+        <v>46.50424434001103</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.53076708295327</v>
+        <v>28.53076708295323</v>
       </c>
       <c r="I18">
-        <v>14.02171098271562</v>
+        <v>14.02171098271561</v>
       </c>
       <c r="J18">
-        <v>22.50026840560738</v>
+        <v>22.50026840560741</v>
       </c>
       <c r="K18">
-        <v>21.37476786382353</v>
+        <v>21.37476786382355</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.12120394132934</v>
+        <v>25.1212039413292</v>
       </c>
       <c r="C19">
         <v>18.36036372923164</v>
       </c>
       <c r="D19">
-        <v>3.272367234566591</v>
+        <v>3.272367234566658</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.31371240074508</v>
+        <v>46.31371240074497</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.4364628450395</v>
+        <v>28.43646284503951</v>
       </c>
       <c r="I19">
-        <v>13.95132189179592</v>
+        <v>13.95132189179589</v>
       </c>
       <c r="J19">
-        <v>22.39475938283795</v>
+        <v>22.39475938283783</v>
       </c>
       <c r="K19">
-        <v>21.26971107902814</v>
+        <v>21.26971107902812</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.65827066435312</v>
+        <v>25.65827066435308</v>
       </c>
       <c r="C20">
-        <v>18.75893757595109</v>
+        <v>18.75893757595101</v>
       </c>
       <c r="D20">
-        <v>3.257367982507154</v>
+        <v>3.257367982507086</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.17047972765951</v>
+        <v>47.1704797276593</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.86163615879487</v>
+        <v>28.86163615879474</v>
       </c>
       <c r="I20">
-        <v>14.26699249994274</v>
+        <v>14.2669924999427</v>
       </c>
       <c r="J20">
-        <v>22.86741086341911</v>
+        <v>22.86741086341907</v>
       </c>
       <c r="K20">
-        <v>21.74066765423925</v>
+        <v>21.74066765423916</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.42055692877073</v>
+        <v>27.42055692877084</v>
       </c>
       <c r="C21">
-        <v>20.06972378428018</v>
+        <v>20.06972378428031</v>
       </c>
       <c r="D21">
-        <v>3.205252064040018</v>
+        <v>3.205252064040021</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03985737373452</v>
+        <v>50.03985737373463</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.3052344940836</v>
+        <v>30.30523449408367</v>
       </c>
       <c r="I21">
-        <v>15.31001834893767</v>
+        <v>15.31001834893769</v>
       </c>
       <c r="J21">
-        <v>24.41942112348113</v>
+        <v>24.41942112348126</v>
       </c>
       <c r="K21">
-        <v>23.29331856851811</v>
+        <v>23.29331856851818</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5432189491889</v>
+        <v>28.54321894918888</v>
       </c>
       <c r="C22">
-        <v>20.9072202455473</v>
+        <v>20.90722024554719</v>
       </c>
       <c r="D22">
-        <v>3.169693564895319</v>
+        <v>3.169693564895185</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.26171960808143</v>
+        <v>31.26171960808142</v>
       </c>
       <c r="I22">
-        <v>15.9805322518907</v>
+        <v>15.98053225189069</v>
       </c>
       <c r="J22">
-        <v>25.40901927650206</v>
+        <v>25.40901927650204</v>
       </c>
       <c r="K22">
-        <v>24.28857335913477</v>
+        <v>24.28857335913469</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.9465326664005</v>
+        <v>27.94653266640049</v>
       </c>
       <c r="C23">
-        <v>20.46185110691375</v>
+        <v>20.46185110691368</v>
       </c>
       <c r="D23">
-        <v>3.188823906011461</v>
+        <v>3.188823906011661</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.91264207734068</v>
+        <v>50.91264207734055</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30.74990076826935</v>
+        <v>30.7499007682693</v>
       </c>
       <c r="I23">
-        <v>15.62355248300383</v>
+        <v>15.62355248300379</v>
       </c>
       <c r="J23">
-        <v>24.88296745858659</v>
+        <v>24.88296745858653</v>
       </c>
       <c r="K23">
-        <v>23.75898675533745</v>
+        <v>23.7589867553374</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.62894175877095</v>
+        <v>25.62894175877085</v>
       </c>
       <c r="C24">
-        <v>18.73716114661028</v>
+        <v>18.73716114661024</v>
       </c>
       <c r="D24">
-        <v>3.258197639448857</v>
+        <v>3.258197639448724</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.12347156598442</v>
+        <v>47.12347156598436</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.83823471024727</v>
+        <v>28.83823471024724</v>
       </c>
       <c r="I24">
-        <v>14.24972807830125</v>
+        <v>14.24972807830124</v>
       </c>
       <c r="J24">
-        <v>22.84159566944895</v>
+        <v>22.8415956694489</v>
       </c>
       <c r="K24">
-        <v>21.71492289454267</v>
+        <v>21.71492289454259</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.98968016082811</v>
+        <v>22.98968016082813</v>
       </c>
       <c r="C25">
-        <v>16.78238211384818</v>
+        <v>16.78238211384802</v>
       </c>
       <c r="D25">
-        <v>3.327915535737462</v>
+        <v>3.327915535737461</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.00230789762684</v>
+        <v>43.00230789762691</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.82189537544942</v>
+        <v>26.8218953754494</v>
       </c>
       <c r="I25">
-        <v>12.70799975706004</v>
+        <v>12.70799975706003</v>
       </c>
       <c r="J25">
         <v>20.52038822923516</v>
       </c>
       <c r="K25">
-        <v>19.4101635694857</v>
+        <v>19.41016356948569</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91273818755103</v>
+        <v>20.91273818755096</v>
       </c>
       <c r="C2">
         <v>15.25042420106342</v>
       </c>
       <c r="D2">
-        <v>3.37605762413529</v>
+        <v>3.376057624135156</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.92745390100835</v>
+        <v>39.92745390100828</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.36960222128364</v>
+        <v>25.36960222128361</v>
       </c>
       <c r="I2">
-        <v>11.5102556127034</v>
+        <v>11.51025561270342</v>
       </c>
       <c r="J2">
-        <v>18.69629951174196</v>
+        <v>18.69629951174193</v>
       </c>
       <c r="K2">
-        <v>17.61203699543032</v>
+        <v>17.61203699543031</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.41598419417596</v>
+        <v>19.41598419417599</v>
       </c>
       <c r="C3">
-        <v>14.14960757091491</v>
+        <v>14.14960757091485</v>
       </c>
       <c r="D3">
-        <v>3.407181041794657</v>
+        <v>3.407181041794791</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.81782318121079</v>
+        <v>37.81782318121077</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.40427233962127</v>
+        <v>24.4042723396212</v>
       </c>
       <c r="I3">
-        <v>10.83480238459886</v>
+        <v>10.83480238459887</v>
       </c>
       <c r="J3">
-        <v>17.38317772857077</v>
+        <v>17.3831777285708</v>
       </c>
       <c r="K3">
-        <v>16.32403271536422</v>
+        <v>16.32403271536421</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45129065793914</v>
+        <v>18.45129065793904</v>
       </c>
       <c r="C4">
-        <v>13.44144287748902</v>
+        <v>13.44144287748926</v>
       </c>
       <c r="D4">
-        <v>3.425685780914462</v>
+        <v>3.425685780914528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.51103358347716</v>
+        <v>36.51103358347722</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.82096733531026</v>
+        <v>23.82096733531036</v>
       </c>
       <c r="I4">
         <v>10.41645286181878</v>
@@ -515,7 +515,7 @@
         <v>16.53748518116677</v>
       </c>
       <c r="K4">
-        <v>15.49715586012418</v>
+        <v>15.49715586012421</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0464549110911</v>
+        <v>18.04645491109111</v>
       </c>
       <c r="C5">
-        <v>13.14456122076135</v>
+        <v>13.14456122076148</v>
       </c>
       <c r="D5">
-        <v>3.433092418103873</v>
+        <v>3.433092418103673</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.97596295918309</v>
+        <v>35.97596295918297</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.58569116570947</v>
+        <v>23.58569116570933</v>
       </c>
       <c r="I5">
-        <v>10.2445209273281</v>
+        <v>10.24452092732809</v>
       </c>
       <c r="J5">
-        <v>16.1827438508464</v>
+        <v>16.18274385084647</v>
       </c>
       <c r="K5">
-        <v>15.15089197922762</v>
+        <v>15.15089197922764</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.9785182951091</v>
+        <v>17.97851829510912</v>
       </c>
       <c r="C6">
-        <v>13.09475781491993</v>
+        <v>13.09475781491982</v>
       </c>
       <c r="D6">
-        <v>3.434314671713159</v>
+        <v>3.434314671713227</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.88697377227039</v>
+        <v>35.88697377227043</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.54677250833877</v>
+        <v>23.54677250833883</v>
       </c>
       <c r="I6">
-        <v>10.21588743475802</v>
+        <v>10.21588743475801</v>
       </c>
       <c r="J6">
-        <v>16.12322289571651</v>
+        <v>16.12322289571647</v>
       </c>
       <c r="K6">
-        <v>15.09282639271698</v>
+        <v>15.09282639271697</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.44587862692982</v>
+        <v>18.44587862692981</v>
       </c>
       <c r="C7">
-        <v>13.43747286658504</v>
+        <v>13.43747286658511</v>
       </c>
       <c r="D7">
-        <v>3.425786190288083</v>
+        <v>3.425786190288151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.50382718548668</v>
+        <v>36.50382718548671</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.81778439870439</v>
+        <v>23.81778439870445</v>
       </c>
       <c r="I7">
-        <v>10.41413986013099</v>
+        <v>10.41413986013101</v>
       </c>
       <c r="J7">
-        <v>16.53274222193523</v>
+        <v>16.53274222193528</v>
       </c>
       <c r="K7">
-        <v>15.49252400694056</v>
+        <v>15.49252400694061</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40599534538497</v>
+        <v>20.40599534538505</v>
       </c>
       <c r="C8">
-        <v>14.8774406987729</v>
+        <v>14.87744069877295</v>
       </c>
       <c r="D8">
-        <v>3.386925990217943</v>
+        <v>3.386925990217944</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.03482766330861</v>
+        <v>25.03482766330853</v>
       </c>
       <c r="I8">
-        <v>11.27601551404476</v>
+        <v>11.27601551404479</v>
       </c>
       <c r="J8">
-        <v>18.25159323953</v>
+        <v>18.25159323953008</v>
       </c>
       <c r="K8">
-        <v>17.17525987647095</v>
+        <v>17.17525987647098</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.89863996812127</v>
+        <v>23.89863996812126</v>
       </c>
       <c r="C9">
-        <v>17.45454920926727</v>
+        <v>17.45454920926742</v>
       </c>
       <c r="D9">
-        <v>3.304998938723496</v>
+        <v>3.304998938723427</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.39638812363248</v>
+        <v>44.39638812363258</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.49576924077007</v>
+        <v>27.49576924077013</v>
       </c>
       <c r="I9">
         <v>13.23638207273191</v>
       </c>
       <c r="J9">
-        <v>21.31939739361776</v>
+        <v>21.31939739361778</v>
       </c>
       <c r="K9">
         <v>20.2013146019361</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26823026609767</v>
+        <v>26.26823026609775</v>
       </c>
       <c r="C10">
-        <v>19.21210699129507</v>
+        <v>19.21210699129518</v>
       </c>
       <c r="D10">
-        <v>3.239835416654676</v>
+        <v>3.239835416654609</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.15376896073937</v>
+        <v>48.15376896073943</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.35302928969396</v>
+        <v>29.35302928969402</v>
       </c>
       <c r="I10">
-        <v>14.62673176541378</v>
+        <v>14.62673176541381</v>
       </c>
       <c r="J10">
-        <v>23.40439957649872</v>
+        <v>23.40439957649879</v>
       </c>
       <c r="K10">
-        <v>22.27678186948686</v>
+        <v>22.27678186948692</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.30811058100843</v>
+        <v>27.30811058100839</v>
       </c>
       <c r="C11">
-        <v>19.98594772598342</v>
+        <v>19.9859477259833</v>
       </c>
       <c r="D11">
-        <v>3.208711625078759</v>
+        <v>3.208711625078892</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.85421746106633</v>
+        <v>49.85421746106617</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.21097490093481</v>
+        <v>30.21097490093469</v>
       </c>
       <c r="I11">
-        <v>15.24312533164978</v>
+        <v>15.24312533164979</v>
       </c>
       <c r="J11">
-        <v>24.32034123975133</v>
+        <v>24.3203412397513</v>
       </c>
       <c r="K11">
-        <v>23.19390340650403</v>
+        <v>23.19390340650405</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.69685577613384</v>
+        <v>27.69685577613383</v>
       </c>
       <c r="C12">
-        <v>20.27565762061806</v>
+        <v>20.27565762061803</v>
       </c>
       <c r="D12">
-        <v>3.196672838977272</v>
+        <v>3.196672838977204</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.49743103058613</v>
+        <v>50.49743103058621</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.53805261207555</v>
+        <v>30.53805261207561</v>
       </c>
       <c r="I12">
         <v>15.47458840411128</v>
       </c>
       <c r="J12">
-        <v>24.66290615466815</v>
+        <v>24.66290615466814</v>
       </c>
       <c r="K12">
-        <v>23.53780375325005</v>
+        <v>23.53780375325006</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.61334879186662</v>
+        <v>27.61334879186664</v>
       </c>
       <c r="C13">
-        <v>20.2134049333827</v>
+        <v>20.21340493338265</v>
       </c>
       <c r="D13">
-        <v>3.199277563872033</v>
+        <v>3.199277563871968</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.35892387651173</v>
+        <v>50.35892387651184</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.4675068538026</v>
+        <v>30.46750685380269</v>
       </c>
       <c r="I13">
         <v>15.42481911106054</v>
       </c>
       <c r="J13">
-        <v>24.58931216148125</v>
+        <v>24.58931216148123</v>
       </c>
       <c r="K13">
-        <v>23.4638809148876</v>
+        <v>23.46388091488758</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34019104743165</v>
+        <v>27.34019104743173</v>
       </c>
       <c r="C14">
-        <v>20.00984670928927</v>
+        <v>20.00984670928931</v>
       </c>
       <c r="D14">
-        <v>3.207726508261911</v>
+        <v>3.207726508261976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.90714529728365</v>
+        <v>49.90714529728378</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.23783764243499</v>
+        <v>30.23783764243504</v>
       </c>
       <c r="I14">
-        <v>15.26220477649692</v>
+        <v>15.2622047764969</v>
       </c>
       <c r="J14">
-        <v>24.34860759859861</v>
+        <v>24.34860759859866</v>
       </c>
       <c r="K14">
-        <v>23.22226121191731</v>
+        <v>23.22226121191735</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.17223245311907</v>
+        <v>27.17223245311891</v>
       </c>
       <c r="C15">
-        <v>19.88473999244751</v>
+        <v>19.88473999244746</v>
       </c>
       <c r="D15">
-        <v>3.212867496347191</v>
+        <v>3.212867496347256</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.63034563514368</v>
+        <v>49.63034563514348</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.09745535728388</v>
+        <v>30.09745535728379</v>
       </c>
       <c r="I15">
-        <v>15.16235633342562</v>
+        <v>15.16235633342565</v>
       </c>
       <c r="J15">
-        <v>24.20062421171447</v>
+        <v>24.20062421171433</v>
       </c>
       <c r="K15">
         <v>23.07383613738985</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.19954179958276</v>
+        <v>26.19954179958277</v>
       </c>
       <c r="C16">
-        <v>19.16104797100205</v>
+        <v>19.16104797100186</v>
       </c>
       <c r="D16">
-        <v>3.241836368539345</v>
+        <v>3.241836368539277</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.0425063240163</v>
+        <v>48.04250632401629</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.29724773551604</v>
+        <v>29.29724773551603</v>
       </c>
       <c r="I16">
-        <v>14.58615492098293</v>
+        <v>14.58615492098294</v>
       </c>
       <c r="J16">
-        <v>23.34391847207349</v>
+        <v>23.34391847207343</v>
       </c>
       <c r="K16">
-        <v>22.21634242586454</v>
+        <v>22.21634242586449</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59337201565585</v>
+        <v>25.59337201565588</v>
       </c>
       <c r="C17">
-        <v>18.71075260001278</v>
+        <v>18.71075260001272</v>
       </c>
       <c r="D17">
-        <v>3.259202197097562</v>
+        <v>3.259202197097697</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.80988187457754</v>
+        <v>28.80988187457753</v>
       </c>
       <c r="I17">
         <v>14.22879402671652</v>
       </c>
       <c r="J17">
-        <v>22.81028793000363</v>
+        <v>22.81028793000367</v>
       </c>
       <c r="K17">
-        <v>21.68370403329796</v>
+        <v>21.68370403329799</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.24110736194135</v>
+        <v>25.24110736194131</v>
       </c>
       <c r="C18">
-        <v>18.44931255053683</v>
+        <v>18.4493125505368</v>
       </c>
       <c r="D18">
-        <v>3.269053950384043</v>
+        <v>3.269053950383977</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.50424434001103</v>
+        <v>46.50424434001108</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.53076708295323</v>
+        <v>28.53076708295327</v>
       </c>
       <c r="I18">
-        <v>14.02171098271561</v>
+        <v>14.02171098271562</v>
       </c>
       <c r="J18">
-        <v>22.50026840560741</v>
+        <v>22.50026840560738</v>
       </c>
       <c r="K18">
-        <v>21.37476786382355</v>
+        <v>21.37476786382353</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1212039413292</v>
+        <v>25.12120394132934</v>
       </c>
       <c r="C19">
         <v>18.36036372923164</v>
       </c>
       <c r="D19">
-        <v>3.272367234566658</v>
+        <v>3.272367234566591</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.31371240074497</v>
+        <v>46.31371240074508</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.43646284503951</v>
+        <v>28.4364628450395</v>
       </c>
       <c r="I19">
-        <v>13.95132189179589</v>
+        <v>13.95132189179592</v>
       </c>
       <c r="J19">
-        <v>22.39475938283783</v>
+        <v>22.39475938283795</v>
       </c>
       <c r="K19">
-        <v>21.26971107902812</v>
+        <v>21.26971107902814</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.65827066435308</v>
+        <v>25.65827066435312</v>
       </c>
       <c r="C20">
-        <v>18.75893757595101</v>
+        <v>18.75893757595109</v>
       </c>
       <c r="D20">
-        <v>3.257367982507086</v>
+        <v>3.257367982507154</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.1704797276593</v>
+        <v>47.17047972765951</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.86163615879474</v>
+        <v>28.86163615879487</v>
       </c>
       <c r="I20">
-        <v>14.2669924999427</v>
+        <v>14.26699249994274</v>
       </c>
       <c r="J20">
-        <v>22.86741086341907</v>
+        <v>22.86741086341911</v>
       </c>
       <c r="K20">
-        <v>21.74066765423916</v>
+        <v>21.74066765423925</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.42055692877084</v>
+        <v>27.42055692877073</v>
       </c>
       <c r="C21">
-        <v>20.06972378428031</v>
+        <v>20.06972378428018</v>
       </c>
       <c r="D21">
-        <v>3.205252064040021</v>
+        <v>3.205252064040018</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03985737373463</v>
+        <v>50.03985737373452</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.30523449408367</v>
+        <v>30.3052344940836</v>
       </c>
       <c r="I21">
-        <v>15.31001834893769</v>
+        <v>15.31001834893767</v>
       </c>
       <c r="J21">
-        <v>24.41942112348126</v>
+        <v>24.41942112348113</v>
       </c>
       <c r="K21">
-        <v>23.29331856851818</v>
+        <v>23.29331856851811</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.54321894918888</v>
+        <v>28.5432189491889</v>
       </c>
       <c r="C22">
-        <v>20.90722024554719</v>
+        <v>20.9072202455473</v>
       </c>
       <c r="D22">
-        <v>3.169693564895185</v>
+        <v>3.169693564895319</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.26171960808142</v>
+        <v>31.26171960808143</v>
       </c>
       <c r="I22">
-        <v>15.98053225189069</v>
+        <v>15.9805322518907</v>
       </c>
       <c r="J22">
-        <v>25.40901927650204</v>
+        <v>25.40901927650206</v>
       </c>
       <c r="K22">
-        <v>24.28857335913469</v>
+        <v>24.28857335913477</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.94653266640049</v>
+        <v>27.9465326664005</v>
       </c>
       <c r="C23">
-        <v>20.46185110691368</v>
+        <v>20.46185110691375</v>
       </c>
       <c r="D23">
-        <v>3.188823906011661</v>
+        <v>3.188823906011461</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.91264207734055</v>
+        <v>50.91264207734068</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30.7499007682693</v>
+        <v>30.74990076826935</v>
       </c>
       <c r="I23">
-        <v>15.62355248300379</v>
+        <v>15.62355248300383</v>
       </c>
       <c r="J23">
-        <v>24.88296745858653</v>
+        <v>24.88296745858659</v>
       </c>
       <c r="K23">
-        <v>23.7589867553374</v>
+        <v>23.75898675533745</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.62894175877085</v>
+        <v>25.62894175877095</v>
       </c>
       <c r="C24">
-        <v>18.73716114661024</v>
+        <v>18.73716114661028</v>
       </c>
       <c r="D24">
-        <v>3.258197639448724</v>
+        <v>3.258197639448857</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.12347156598436</v>
+        <v>47.12347156598442</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.83823471024724</v>
+        <v>28.83823471024727</v>
       </c>
       <c r="I24">
-        <v>14.24972807830124</v>
+        <v>14.24972807830125</v>
       </c>
       <c r="J24">
-        <v>22.8415956694489</v>
+        <v>22.84159566944895</v>
       </c>
       <c r="K24">
-        <v>21.71492289454259</v>
+        <v>21.71492289454267</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.98968016082813</v>
+        <v>22.98968016082811</v>
       </c>
       <c r="C25">
-        <v>16.78238211384802</v>
+        <v>16.78238211384818</v>
       </c>
       <c r="D25">
-        <v>3.327915535737461</v>
+        <v>3.327915535737462</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.00230789762691</v>
+        <v>43.00230789762684</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.8218953754494</v>
+        <v>26.82189537544942</v>
       </c>
       <c r="I25">
-        <v>12.70799975706003</v>
+        <v>12.70799975706004</v>
       </c>
       <c r="J25">
         <v>20.52038822923516</v>
       </c>
       <c r="K25">
-        <v>19.41016356948569</v>
+        <v>19.4101635694857</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91273818755096</v>
+        <v>20.81209397999634</v>
       </c>
       <c r="C2">
-        <v>15.25042420106342</v>
+        <v>15.13033603634034</v>
       </c>
       <c r="D2">
-        <v>3.376057624135156</v>
+        <v>3.517328970572441</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.92745390100828</v>
+        <v>40.06112285187719</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.064264858368387</v>
       </c>
       <c r="H2">
-        <v>25.36960222128361</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.51025561270342</v>
+        <v>25.52586490803355</v>
       </c>
       <c r="J2">
-        <v>18.69629951174193</v>
+        <v>11.49437995644851</v>
       </c>
       <c r="K2">
-        <v>17.61203699543031</v>
+        <v>18.57745560803595</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.57233475986788</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.41598419417599</v>
+        <v>19.31997200568841</v>
       </c>
       <c r="C3">
-        <v>14.14960757091485</v>
+        <v>14.03399679800593</v>
       </c>
       <c r="D3">
-        <v>3.407181041794791</v>
+        <v>3.549045469167693</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.81782318121077</v>
+        <v>37.98769037168977</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.076166920741749</v>
       </c>
       <c r="H3">
-        <v>24.4042723396212</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.83480238459887</v>
+        <v>24.5831144029231</v>
       </c>
       <c r="J3">
-        <v>17.3831777285708</v>
+        <v>10.81721663778888</v>
       </c>
       <c r="K3">
-        <v>16.32403271536421</v>
+        <v>17.26716702955341</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.28743862004786</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45129065793904</v>
+        <v>18.3582409186615</v>
       </c>
       <c r="C4">
-        <v>13.44144287748926</v>
+        <v>13.32867957670013</v>
       </c>
       <c r="D4">
-        <v>3.425685780914528</v>
+        <v>3.567930971975985</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.51103358347722</v>
+        <v>36.70510542521246</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.083605178349611</v>
       </c>
       <c r="H4">
-        <v>23.82096733531036</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.41645286181878</v>
+        <v>24.01442354186824</v>
       </c>
       <c r="J4">
-        <v>16.53748518116677</v>
+        <v>10.39974919822858</v>
       </c>
       <c r="K4">
-        <v>15.49715586012421</v>
+        <v>16.4231475029759</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.46248495852067</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04645491109111</v>
+        <v>17.95464581693859</v>
       </c>
       <c r="C5">
-        <v>13.14456122076148</v>
+        <v>13.03298576754923</v>
       </c>
       <c r="D5">
-        <v>3.433092418103673</v>
+        <v>3.57549688625803</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.97596295918297</v>
+        <v>36.18039751279039</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.086672802479238</v>
       </c>
       <c r="H5">
-        <v>23.58569116570933</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>10.24452092732809</v>
+        <v>23.78528037745673</v>
       </c>
       <c r="J5">
-        <v>16.18274385084647</v>
+        <v>10.22816865256353</v>
       </c>
       <c r="K5">
-        <v>15.15089197922764</v>
+        <v>16.06907038333173</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.11701093639005</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.97851829510912</v>
+        <v>17.88691733574002</v>
       </c>
       <c r="C6">
-        <v>13.09475781491982</v>
+        <v>12.98338134117628</v>
       </c>
       <c r="D6">
-        <v>3.434314671713227</v>
+        <v>3.576745834486998</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.88697377227043</v>
+        <v>36.0931591204692</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.087184483806648</v>
       </c>
       <c r="H6">
-        <v>23.54677250833883</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10.21588743475801</v>
+        <v>23.74739044795614</v>
       </c>
       <c r="J6">
-        <v>16.12322289571647</v>
+        <v>10.19959305136359</v>
       </c>
       <c r="K6">
-        <v>15.09282639271697</v>
+        <v>16.00965861728172</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.05907694097479</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.44587862692981</v>
+        <v>18.35284547923339</v>
       </c>
       <c r="C7">
-        <v>13.43747286658511</v>
+        <v>13.3247254706986</v>
       </c>
       <c r="D7">
-        <v>3.425786190288151</v>
+        <v>3.568033512838221</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.50382718548671</v>
+        <v>36.69803676374149</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.083646397075865</v>
       </c>
       <c r="H7">
-        <v>23.81778439870445</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10.41413986013101</v>
+        <v>24.01132261472198</v>
       </c>
       <c r="J7">
-        <v>16.53274222193528</v>
+        <v>10.39744096673143</v>
       </c>
       <c r="K7">
-        <v>15.49252400694061</v>
+        <v>16.41841357437868</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.45786372981448</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40599534538505</v>
+        <v>20.30692589308073</v>
       </c>
       <c r="C8">
-        <v>14.87744069877295</v>
+        <v>14.75887762820721</v>
       </c>
       <c r="D8">
-        <v>3.386925990217944</v>
+        <v>3.528398340858606</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.20259559874438</v>
+        <v>39.34833767094582</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.068343974440492</v>
       </c>
       <c r="H8">
-        <v>25.03482766330853</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.27601551404479</v>
+        <v>25.19871430768623</v>
       </c>
       <c r="J8">
-        <v>18.25159323953008</v>
+        <v>11.25745755029372</v>
       </c>
       <c r="K8">
-        <v>17.17525987647098</v>
+        <v>18.1337398357367</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>17.13662782839806</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.89863996812126</v>
+        <v>23.78850430959675</v>
       </c>
       <c r="C9">
-        <v>17.45454920926742</v>
+        <v>17.3252281958708</v>
       </c>
       <c r="D9">
-        <v>3.304998938723427</v>
+        <v>3.445087119206052</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.39638812363258</v>
+        <v>44.46244600128944</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.03918260300412</v>
       </c>
       <c r="H9">
-        <v>27.49576924077013</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>13.23638207273191</v>
+        <v>27.6077858061562</v>
       </c>
       <c r="J9">
-        <v>21.31939739361778</v>
+        <v>13.21625751041204</v>
       </c>
       <c r="K9">
-        <v>20.2013146019361</v>
+        <v>21.19409193946681</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>20.15488067415892</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.26823026609775</v>
+        <v>26.15017987379973</v>
       </c>
       <c r="C10">
-        <v>19.21210699129518</v>
+        <v>19.07506486228551</v>
       </c>
       <c r="D10">
-        <v>3.239835416654609</v>
+        <v>3.378996480191478</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.15376896073943</v>
+        <v>48.16987008563915</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.017974612504515</v>
       </c>
       <c r="H10">
-        <v>29.35302928969402</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.62673176541381</v>
+        <v>29.43095647179948</v>
       </c>
       <c r="J10">
-        <v>23.40439957649879</v>
+        <v>14.60275823997232</v>
       </c>
       <c r="K10">
-        <v>22.27678186948692</v>
+        <v>23.27320457582293</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.22438342988035</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.30811058100839</v>
+        <v>27.18643943698786</v>
       </c>
       <c r="C11">
-        <v>19.9859477259833</v>
+        <v>19.84537484247785</v>
       </c>
       <c r="D11">
-        <v>3.208711625078892</v>
+        <v>3.347472857383567</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.85421746106617</v>
+        <v>49.84921315894017</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.008293965548254</v>
       </c>
       <c r="H11">
-        <v>30.21097490093469</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>15.24312533164979</v>
+        <v>30.27423797930501</v>
       </c>
       <c r="J11">
-        <v>24.3203412397513</v>
+        <v>15.21730054386336</v>
       </c>
       <c r="K11">
-        <v>23.19390340650405</v>
+        <v>24.18633730171388</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.13867477061019</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.69685577613383</v>
+        <v>27.57380374835709</v>
       </c>
       <c r="C12">
-        <v>20.27565762061803</v>
+        <v>20.13373903177053</v>
       </c>
       <c r="D12">
-        <v>3.196672838977204</v>
+        <v>3.335286111080356</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.49743103058621</v>
+        <v>50.48464270147991</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.004615486350684</v>
       </c>
       <c r="H12">
-        <v>30.53805261207561</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>15.47458840411128</v>
+        <v>30.59587695132016</v>
       </c>
       <c r="J12">
-        <v>24.66290615466814</v>
+        <v>15.44804284774179</v>
       </c>
       <c r="K12">
-        <v>23.53780375325006</v>
+        <v>24.52781491992371</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.48147934955042</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.61334879186664</v>
+        <v>27.49059472182897</v>
       </c>
       <c r="C13">
-        <v>20.21340493338265</v>
+        <v>20.07177666283736</v>
       </c>
       <c r="D13">
-        <v>3.199277563871968</v>
+        <v>3.337922542821108</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.35892387651184</v>
+        <v>50.34780315800007</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.005408413725844</v>
       </c>
       <c r="H13">
-        <v>30.46750685380269</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>15.42481911106054</v>
+        <v>30.52649759425219</v>
       </c>
       <c r="J13">
-        <v>24.58931216148123</v>
+        <v>15.39842976153605</v>
       </c>
       <c r="K13">
-        <v>23.46388091488758</v>
+        <v>24.45445624145702</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.4077937073743</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34019104743173</v>
+        <v>27.21840653770195</v>
       </c>
       <c r="C14">
-        <v>20.00984670928931</v>
+        <v>19.86916332711103</v>
       </c>
       <c r="D14">
-        <v>3.207726508261976</v>
+        <v>3.346475496679816</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.90714529728378</v>
+        <v>49.90149658354113</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.007991637684501</v>
       </c>
       <c r="H14">
-        <v>30.23783764243504</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>15.2622047764969</v>
+        <v>30.30065103660523</v>
       </c>
       <c r="J14">
-        <v>24.34860759859866</v>
+        <v>15.2363211212479</v>
       </c>
       <c r="K14">
-        <v>23.22226121191735</v>
+        <v>24.21451471518857</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.16694295587376</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.17223245311891</v>
+        <v>27.05104032542904</v>
       </c>
       <c r="C15">
-        <v>19.88473999244746</v>
+        <v>19.74463404930834</v>
       </c>
       <c r="D15">
-        <v>3.212867496347256</v>
+        <v>3.35168065283702</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.63034563514348</v>
+        <v>49.62807498387539</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.009572036618072</v>
       </c>
       <c r="H15">
-        <v>30.09745535728379</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>15.16235633342565</v>
+        <v>30.16262484189059</v>
       </c>
       <c r="J15">
-        <v>24.20062421171433</v>
+        <v>15.13677968073196</v>
       </c>
       <c r="K15">
-        <v>23.07383613738985</v>
+        <v>24.06699546169084</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23.01898551230312</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.19954179958277</v>
+        <v>26.08172706707182</v>
       </c>
       <c r="C16">
-        <v>19.16104797100186</v>
+        <v>19.0242357269076</v>
       </c>
       <c r="D16">
-        <v>3.241836368539277</v>
+        <v>3.381024026279503</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.04250632401629</v>
+        <v>48.06001730473649</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.018605955825486</v>
       </c>
       <c r="H16">
-        <v>29.29724773551603</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.58615492098294</v>
+        <v>29.37614970449908</v>
       </c>
       <c r="J16">
-        <v>23.34391847207343</v>
+        <v>14.56229993549207</v>
       </c>
       <c r="K16">
-        <v>22.21634242586449</v>
+        <v>23.21290404173306</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.16412601449951</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.59337201565588</v>
+        <v>25.47761952962637</v>
       </c>
       <c r="C17">
-        <v>18.71075260001272</v>
+        <v>18.57595230473571</v>
       </c>
       <c r="D17">
-        <v>3.259202197097697</v>
+        <v>3.398625396311791</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.06649451575803</v>
+        <v>47.09653937591214</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.024134291732247</v>
       </c>
       <c r="H17">
-        <v>28.80988187457753</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.22879402671652</v>
+        <v>28.89742043100683</v>
       </c>
       <c r="J17">
-        <v>22.81028793000367</v>
+        <v>14.20596613306887</v>
       </c>
       <c r="K17">
-        <v>21.68370403329799</v>
+        <v>22.68084100453583</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.6330690571121</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.24110736194131</v>
+        <v>25.12653959352917</v>
       </c>
       <c r="C18">
-        <v>18.4493125505368</v>
+        <v>18.3156681702277</v>
       </c>
       <c r="D18">
-        <v>3.269053950383977</v>
+        <v>3.408614667761232</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.50424434001108</v>
+        <v>46.541652559681</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.027311474747251</v>
       </c>
       <c r="H18">
-        <v>28.53076708295327</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.02171098271562</v>
+        <v>28.62335319600738</v>
       </c>
       <c r="J18">
-        <v>22.50026840560738</v>
+        <v>13.99946478194289</v>
       </c>
       <c r="K18">
-        <v>21.37476786382353</v>
+        <v>22.37171123286362</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.32503200236336</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.12120394132934</v>
+        <v>25.00703723990111</v>
       </c>
       <c r="C19">
-        <v>18.36036372923164</v>
+        <v>18.22711066217833</v>
       </c>
       <c r="D19">
-        <v>3.272367234566591</v>
+        <v>3.411974856173267</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.31371240074508</v>
+        <v>46.35364090672918</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.0283869931006</v>
       </c>
       <c r="H19">
-        <v>28.4364628450395</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.95132189179592</v>
+        <v>28.53077187185689</v>
       </c>
       <c r="J19">
-        <v>22.39475938283795</v>
+        <v>13.92927122739513</v>
       </c>
       <c r="K19">
-        <v>21.26971107902814</v>
+        <v>22.26650155940836</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>21.2202780349175</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.65827066435312</v>
+        <v>25.54229884233123</v>
       </c>
       <c r="C20">
-        <v>18.75893757595109</v>
+        <v>18.62392328014784</v>
       </c>
       <c r="D20">
-        <v>3.257367982507154</v>
+        <v>3.396765894843232</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.17047972765951</v>
+        <v>47.19917454314329</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.023546109981542</v>
       </c>
       <c r="H20">
-        <v>28.86163615879487</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.26699249994274</v>
+        <v>28.94824709318094</v>
       </c>
       <c r="J20">
-        <v>22.86741086341911</v>
+        <v>14.24405624307059</v>
       </c>
       <c r="K20">
-        <v>21.74066765423925</v>
+        <v>22.73779833033463</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.68986546370252</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.42055692877073</v>
+        <v>27.29848796292308</v>
       </c>
       <c r="C21">
-        <v>20.06972378428018</v>
+        <v>19.92876315582466</v>
       </c>
       <c r="D21">
-        <v>3.205252064040018</v>
+        <v>3.34397040598102</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03985737373452</v>
+        <v>50.03259596834655</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.007233294143607</v>
       </c>
       <c r="H21">
-        <v>30.3052344940836</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>15.31001834893767</v>
+        <v>30.36692205648413</v>
       </c>
       <c r="J21">
-        <v>24.41942112348113</v>
+        <v>15.28398674345181</v>
       </c>
       <c r="K21">
-        <v>23.29331856851811</v>
+        <v>24.28510480581384</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.23777517138154</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5432189491889</v>
+        <v>28.4171038271756</v>
       </c>
       <c r="C22">
-        <v>20.9072202455473</v>
+        <v>20.76231889904787</v>
       </c>
       <c r="D22">
-        <v>3.169693564895319</v>
+        <v>3.307988071932637</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.91144349056908</v>
+        <v>51.88188129817826</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.996493674272567</v>
       </c>
       <c r="H22">
-        <v>31.26171960808143</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.9805322518907</v>
+        <v>31.30777815399976</v>
       </c>
       <c r="J22">
-        <v>25.40901927650206</v>
+        <v>15.95235913537514</v>
       </c>
       <c r="K22">
-        <v>24.28857335913477</v>
+        <v>25.27148763459062</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.22978649447787</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.9465326664005</v>
+        <v>27.82258532380093</v>
       </c>
       <c r="C23">
-        <v>20.46185110691375</v>
+        <v>20.31906033355902</v>
       </c>
       <c r="D23">
-        <v>3.188823906011461</v>
+        <v>3.327342640403709</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.91264207734068</v>
+        <v>50.89488183366624</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.00223572670437</v>
       </c>
       <c r="H23">
-        <v>30.74990076826935</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>15.62355248300383</v>
+        <v>30.80424375861027</v>
       </c>
       <c r="J23">
-        <v>24.88296745858659</v>
+        <v>15.5965352912782</v>
       </c>
       <c r="K23">
-        <v>23.75898675533745</v>
+        <v>24.74716687140054</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.70194711352708</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.62894175877095</v>
+        <v>25.51306910084634</v>
       </c>
       <c r="C24">
-        <v>18.73716114661028</v>
+        <v>18.60224360244617</v>
       </c>
       <c r="D24">
-        <v>3.258197639448857</v>
+        <v>3.397606977454617</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.12347156598442</v>
+        <v>47.15277624437515</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.023812029898152</v>
       </c>
       <c r="H24">
-        <v>28.83823471024727</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.24972807830125</v>
+        <v>28.92526476583408</v>
       </c>
       <c r="J24">
-        <v>22.84159566944895</v>
+        <v>14.22684083946483</v>
       </c>
       <c r="K24">
-        <v>21.71492289454267</v>
+        <v>22.71205804281187</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.66419633247845</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.98968016082811</v>
+        <v>22.88248027624751</v>
       </c>
       <c r="C25">
-        <v>16.78238211384818</v>
+        <v>16.65592223681719</v>
       </c>
       <c r="D25">
-        <v>3.327915535737462</v>
+        <v>3.468363043619606</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.00230789762684</v>
+        <v>43.08834358172071</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.047009393486822</v>
       </c>
       <c r="H25">
-        <v>26.82189537544942</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.70799975706004</v>
+        <v>26.9472398096357</v>
       </c>
       <c r="J25">
-        <v>20.52038822923516</v>
+        <v>12.68923270584575</v>
       </c>
       <c r="K25">
-        <v>19.4101635694857</v>
+        <v>20.39716181922842</v>
       </c>
       <c r="L25">
+        <v>19.36586215454769</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.81209397999634</v>
+        <v>22.88378663275777</v>
       </c>
       <c r="C2">
-        <v>15.13033603634034</v>
+        <v>13.53749818910882</v>
       </c>
       <c r="D2">
-        <v>3.517328970572441</v>
+        <v>5.24311524794059</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.06112285187719</v>
+        <v>38.04813886741611</v>
       </c>
       <c r="G2">
-        <v>2.064264858368387</v>
+        <v>2.09582046209609</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.52586490803355</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.49437995644851</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.57745560803595</v>
+        <v>18.74957568931337</v>
       </c>
       <c r="L2">
-        <v>17.57233475986788</v>
+        <v>6.396483378985937</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.54117371385239</v>
+      </c>
+      <c r="N2">
+        <v>15.20230768668378</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.31997200568841</v>
+        <v>21.45303935078147</v>
       </c>
       <c r="C3">
-        <v>14.03399679800593</v>
+        <v>12.63912695527313</v>
       </c>
       <c r="D3">
-        <v>3.549045469167693</v>
+        <v>5.31943919056986</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.98769037168977</v>
+        <v>36.47576403439669</v>
       </c>
       <c r="G3">
-        <v>2.076166920741749</v>
+        <v>2.107031626152822</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.5831144029231</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.81721663778888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.26716702955341</v>
+        <v>17.39911195113173</v>
       </c>
       <c r="L3">
-        <v>16.28743862004786</v>
+        <v>6.336941153208367</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.00850232373646</v>
+      </c>
+      <c r="N3">
+        <v>15.34309469052863</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3582409186615</v>
+        <v>20.54528754722056</v>
       </c>
       <c r="C4">
-        <v>13.32867957670013</v>
+        <v>12.06171131757696</v>
       </c>
       <c r="D4">
-        <v>3.567930971975985</v>
+        <v>5.367842881904004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.70510542521246</v>
+        <v>35.51526533943509</v>
       </c>
       <c r="G4">
-        <v>2.083605178349611</v>
+        <v>2.114067693966133</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.01442354186824</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.39974919822858</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.4231475029759</v>
+        <v>16.52862519532695</v>
       </c>
       <c r="L4">
-        <v>15.46248495852067</v>
+        <v>6.303601334025036</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.68148479832247</v>
+      </c>
+      <c r="N4">
+        <v>15.43486544400517</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.95464581693859</v>
+        <v>20.16821618070606</v>
       </c>
       <c r="C5">
-        <v>13.03298576754923</v>
+        <v>11.81983327908545</v>
       </c>
       <c r="D5">
-        <v>3.57549688625803</v>
+        <v>5.3879483122156</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.18039751279039</v>
+        <v>35.1254191640584</v>
       </c>
       <c r="G5">
-        <v>2.086672802479238</v>
+        <v>2.116976061802723</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.78528037745673</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.22816865256353</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.06907038333173</v>
+        <v>16.17551200216378</v>
       </c>
       <c r="L5">
-        <v>15.11701093639005</v>
+        <v>6.290806800586343</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.54837647135978</v>
+      </c>
+      <c r="N5">
+        <v>15.4735497067613</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.88691733574002</v>
+        <v>20.1051792728768</v>
       </c>
       <c r="C6">
-        <v>12.98338134117628</v>
+        <v>11.77927024261226</v>
       </c>
       <c r="D6">
-        <v>3.576745834486998</v>
+        <v>5.391309624195716</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.0931591204692</v>
+        <v>35.06079052943466</v>
       </c>
       <c r="G6">
-        <v>2.087184483806648</v>
+        <v>2.117461554887218</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.74739044795614</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.19959305136359</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.00965861728172</v>
+        <v>16.1235879440315</v>
       </c>
       <c r="L6">
-        <v>15.05907694097479</v>
+        <v>6.288729573662192</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.52628779772103</v>
+      </c>
+      <c r="N6">
+        <v>15.48004950618911</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.35284547923339</v>
+        <v>20.54023086895542</v>
       </c>
       <c r="C7">
-        <v>13.3247254706986</v>
+        <v>12.05847599454344</v>
       </c>
       <c r="D7">
-        <v>3.568033512838221</v>
+        <v>5.368112497589152</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.69803676374149</v>
+        <v>35.51000093403762</v>
       </c>
       <c r="G7">
-        <v>2.083646397075865</v>
+        <v>2.114106747223864</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.01132261472198</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.39744096673143</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.41841357437868</v>
+        <v>16.5237418354256</v>
       </c>
       <c r="L7">
-        <v>15.45786372981448</v>
+        <v>6.30342560040535</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.67968882591433</v>
+      </c>
+      <c r="N7">
+        <v>15.43538200771878</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.30692589308073</v>
+        <v>22.39663588667141</v>
       </c>
       <c r="C8">
-        <v>14.75887762820721</v>
+        <v>13.23303990090896</v>
       </c>
       <c r="D8">
-        <v>3.528398340858606</v>
+        <v>5.269107256923032</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.34833767094582</v>
+        <v>37.50513052975354</v>
       </c>
       <c r="G8">
-        <v>2.068343974440492</v>
+        <v>2.099656204885211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.19871430768623</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.25745755029372</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.1337398357367</v>
+        <v>18.29240369751618</v>
       </c>
       <c r="L8">
-        <v>17.13662782839806</v>
+        <v>6.375274279475001</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.35757820502383</v>
+      </c>
+      <c r="N8">
+        <v>15.24971181186712</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78850430959675</v>
+        <v>25.86529569528937</v>
       </c>
       <c r="C9">
-        <v>17.3252281958708</v>
+        <v>15.33636877140807</v>
       </c>
       <c r="D9">
-        <v>3.445087119206052</v>
+        <v>5.087613232349082</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.46244600128944</v>
+        <v>41.44641652853412</v>
       </c>
       <c r="G9">
-        <v>2.03918260300412</v>
+        <v>2.072388183553965</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.6077858061562</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>13.21625751041204</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.19409193946681</v>
+        <v>21.44126154989693</v>
       </c>
       <c r="L9">
-        <v>20.15488067415892</v>
+        <v>6.542536180505946</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.68223103418641</v>
+      </c>
+      <c r="N9">
+        <v>14.93060716653107</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15017987379973</v>
+        <v>28.40379236906919</v>
       </c>
       <c r="C10">
-        <v>19.07506486228551</v>
+        <v>16.76787147913044</v>
       </c>
       <c r="D10">
-        <v>3.378996480191478</v>
+        <v>4.962833386120188</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.16987008563915</v>
+        <v>44.35205761904235</v>
       </c>
       <c r="G10">
-        <v>2.017974612504515</v>
+        <v>2.052788725607897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.43095647179948</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.60275823997232</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.27320457582293</v>
+        <v>23.57265205918327</v>
       </c>
       <c r="L10">
-        <v>22.22438342988035</v>
+        <v>6.682708824223976</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.64785035498349</v>
+      </c>
+      <c r="N10">
+        <v>14.72802471568575</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18643943698786</v>
+        <v>29.51812423499148</v>
       </c>
       <c r="C11">
-        <v>19.84537484247785</v>
+        <v>17.39659032247062</v>
       </c>
       <c r="D11">
-        <v>3.347472857383567</v>
+        <v>4.908211408875728</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.84921315894017</v>
+        <v>45.67646169571172</v>
       </c>
       <c r="G11">
-        <v>2.008293965548254</v>
+        <v>2.043910740551482</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.27423797930501</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15.21730054386336</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.18633730171388</v>
+        <v>24.50596011406417</v>
       </c>
       <c r="L11">
-        <v>23.13867477061019</v>
+        <v>6.750526287400247</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.08509884593763</v>
+      </c>
+      <c r="N11">
+        <v>14.64398973350777</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57380374835709</v>
+        <v>29.93458507150604</v>
       </c>
       <c r="C12">
-        <v>20.13373903177053</v>
+        <v>17.63165380031475</v>
       </c>
       <c r="D12">
-        <v>3.335286111080356</v>
+        <v>4.887868513432339</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.48464270147991</v>
+        <v>46.17852958620227</v>
       </c>
       <c r="G12">
-        <v>2.004615486350684</v>
+        <v>2.040548941999608</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.59587695132016</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15.44804284774179</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.52781491992371</v>
+        <v>24.85446830346097</v>
       </c>
       <c r="L12">
-        <v>23.48147934955042</v>
+        <v>6.776817512552843</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.31118930852703</v>
+      </c>
+      <c r="N12">
+        <v>14.61345722218485</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.49059472182897</v>
+        <v>29.84513254536129</v>
       </c>
       <c r="C13">
-        <v>20.07177666283736</v>
+        <v>17.58115918666246</v>
       </c>
       <c r="D13">
-        <v>3.337922542821108</v>
+        <v>4.892233913794125</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.34780315800007</v>
+        <v>46.07037204724224</v>
       </c>
       <c r="G13">
-        <v>2.005408413725844</v>
+        <v>2.041273053947679</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.52649759425219</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>15.39842976153605</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.45445624145702</v>
+        <v>24.77962424791138</v>
       </c>
       <c r="L13">
-        <v>23.4077937073743</v>
+        <v>6.771127606563238</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.26244493061476</v>
+      </c>
+      <c r="N13">
+        <v>14.61997343353289</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21840653770195</v>
+        <v>29.55249526934687</v>
       </c>
       <c r="C14">
-        <v>19.86916332711103</v>
+        <v>17.41598829795936</v>
       </c>
       <c r="D14">
-        <v>3.346475496679816</v>
+        <v>4.906530723988018</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.90149658354113</v>
+        <v>45.71775479962757</v>
       </c>
       <c r="G14">
-        <v>2.007991637684501</v>
+        <v>2.043634194553396</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.30065103660523</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>15.2363211212479</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.21451471518857</v>
+        <v>24.53472874702032</v>
       </c>
       <c r="L14">
-        <v>23.16694295587376</v>
+        <v>6.752676880978603</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.10293357906966</v>
+      </c>
+      <c r="N14">
+        <v>14.64145118983705</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.05104032542904</v>
+        <v>29.37253851112595</v>
       </c>
       <c r="C15">
-        <v>19.74463404930834</v>
+        <v>17.3144301184546</v>
       </c>
       <c r="D15">
-        <v>3.35168065283702</v>
+        <v>4.915333518252345</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.62807498387539</v>
+        <v>45.50184460627857</v>
       </c>
       <c r="G15">
-        <v>2.009572036618072</v>
+        <v>2.045080303514981</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.16262484189059</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15.13677968073196</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.06699546169084</v>
+        <v>24.38409262118693</v>
       </c>
       <c r="L15">
-        <v>23.01898551230312</v>
+        <v>6.741455630636192</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.02755062105033</v>
+      </c>
+      <c r="N15">
+        <v>14.65477884368226</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.08172706707182</v>
+        <v>28.33017906686193</v>
       </c>
       <c r="C16">
-        <v>19.0242357269076</v>
+        <v>16.72634845659378</v>
       </c>
       <c r="D16">
-        <v>3.381024026279503</v>
+        <v>4.966448800908939</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.06001730473649</v>
+        <v>44.26556898545</v>
       </c>
       <c r="G16">
-        <v>2.018605955825486</v>
+        <v>2.053369244358253</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.37614970449908</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14.56229993549207</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.21290404173306</v>
+        <v>23.51095315739481</v>
       </c>
       <c r="L16">
-        <v>22.16412601449951</v>
+        <v>6.678360602194755</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.61923453470362</v>
+      </c>
+      <c r="N16">
+        <v>14.73369000527564</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.47761952962637</v>
+        <v>27.68056622470153</v>
       </c>
       <c r="C17">
-        <v>18.57595230473571</v>
+        <v>16.35996448368929</v>
       </c>
       <c r="D17">
-        <v>3.398625396311791</v>
+        <v>4.998375835571375</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.09653937591214</v>
+        <v>43.50790583043187</v>
       </c>
       <c r="G17">
-        <v>2.024134291732247</v>
+        <v>2.058460361612455</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.89742043100683</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>14.20596613306887</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>22.68084100453583</v>
+        <v>22.96622277821069</v>
       </c>
       <c r="L17">
-        <v>21.6330690571121</v>
+        <v>6.640710158132911</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.3682247401182</v>
+      </c>
+      <c r="N17">
+        <v>14.78426029768164</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12653959352917</v>
+        <v>27.3030981941046</v>
       </c>
       <c r="C18">
-        <v>18.3156681702277</v>
+        <v>16.1470997521021</v>
       </c>
       <c r="D18">
-        <v>3.408614667761232</v>
+        <v>5.016938480943196</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.541652559681</v>
+        <v>43.07234677369923</v>
       </c>
       <c r="G18">
-        <v>2.027311474747251</v>
+        <v>2.061392564553343</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.62335319600738</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.99946478194289</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.37171123286362</v>
+        <v>22.6494741520276</v>
       </c>
       <c r="L18">
-        <v>21.32503200236336</v>
+        <v>6.619434193741965</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.22365805189049</v>
+      </c>
+      <c r="N18">
+        <v>14.81410300815584</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00703723990111</v>
+        <v>27.17462816868001</v>
       </c>
       <c r="C19">
-        <v>18.22711066217833</v>
+        <v>16.07465550618624</v>
       </c>
       <c r="D19">
-        <v>3.411974856173267</v>
+        <v>5.023256783274079</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.35364090672918</v>
+        <v>42.92491005329053</v>
       </c>
       <c r="G19">
-        <v>2.0283869931006</v>
+        <v>2.062386184214205</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.53077187185689</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.92927122739513</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.26650155940836</v>
+        <v>22.54163012468001</v>
       </c>
       <c r="L19">
-        <v>21.2202780349175</v>
+        <v>6.612294931159905</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.17467749126956</v>
+      </c>
+      <c r="N19">
+        <v>14.82433367189243</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54229884233123</v>
+        <v>27.75011276471909</v>
       </c>
       <c r="C20">
-        <v>18.62392328014784</v>
+        <v>16.39918571755346</v>
       </c>
       <c r="D20">
-        <v>3.396765894843232</v>
+        <v>4.994956331991332</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.19917454314329</v>
+        <v>43.58853585117996</v>
       </c>
       <c r="G20">
-        <v>2.023546109981542</v>
+        <v>2.057918033568804</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.94824709318094</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>14.24405624307059</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.73779833033463</v>
+        <v>23.02456361418194</v>
       </c>
       <c r="L20">
-        <v>21.68986546370252</v>
+        <v>6.644678640162144</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.39496512998548</v>
+      </c>
+      <c r="N20">
+        <v>14.77879793576937</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29848796292308</v>
+        <v>29.63859685542878</v>
       </c>
       <c r="C21">
-        <v>19.92876315582466</v>
+        <v>17.46458305703417</v>
       </c>
       <c r="D21">
-        <v>3.34397040598102</v>
+        <v>4.902321831815777</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03259596834655</v>
+        <v>45.82131029085089</v>
       </c>
       <c r="G21">
-        <v>2.007233294143607</v>
+        <v>2.04294071380601</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.36692205648413</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>15.28398674345181</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.28510480581384</v>
+        <v>24.60679130972623</v>
       </c>
       <c r="L21">
-        <v>23.23777517138154</v>
+        <v>6.758079506317725</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.14987367211317</v>
+      </c>
+      <c r="N21">
+        <v>14.63510658121005</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.4171038271756</v>
+        <v>30.84087972471543</v>
       </c>
       <c r="C22">
-        <v>20.76231889904787</v>
+        <v>18.14340951129298</v>
       </c>
       <c r="D22">
-        <v>3.307988071932637</v>
+        <v>4.843791334240274</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.88188129817826</v>
+        <v>47.28390149201523</v>
       </c>
       <c r="G22">
-        <v>1.996493674272567</v>
+        <v>2.033149731134228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.30777815399976</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>15.95235913537514</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.27148763459062</v>
+        <v>25.61238621056322</v>
       </c>
       <c r="L22">
-        <v>24.22978649447787</v>
+        <v>6.835766173490835</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.80467416424037</v>
+      </c>
+      <c r="N22">
+        <v>14.54878460931612</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82258532380093</v>
+        <v>30.20200781258887</v>
       </c>
       <c r="C23">
-        <v>20.31906033355902</v>
+        <v>17.78262661063</v>
       </c>
       <c r="D23">
-        <v>3.327342640403709</v>
+        <v>4.874832633220987</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.89488183366624</v>
+        <v>46.50289471879481</v>
       </c>
       <c r="G23">
-        <v>2.00223572670437</v>
+        <v>2.038377549555378</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.80424375861027</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>15.5965352912782</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>24.74716687140054</v>
+        <v>25.07817796632746</v>
       </c>
       <c r="L23">
-        <v>23.70194711352708</v>
+        <v>6.793966276425604</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.45687299214948</v>
+      </c>
+      <c r="N23">
+        <v>14.59411638577862</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51306910084634</v>
+        <v>27.71868324582207</v>
       </c>
       <c r="C24">
-        <v>18.60224360244617</v>
+        <v>16.38146074601146</v>
       </c>
       <c r="D24">
-        <v>3.397606977454617</v>
+        <v>4.996501646067844</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.15277624437515</v>
+        <v>43.55208293159046</v>
       </c>
       <c r="G24">
-        <v>2.023812029898152</v>
+        <v>2.058163203325039</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.92526476583408</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>14.22684083946483</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.71205804281187</v>
+        <v>22.99819888250001</v>
       </c>
       <c r="L24">
-        <v>21.66419633247845</v>
+        <v>6.642883339686366</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.38287660297908</v>
+      </c>
+      <c r="N24">
+        <v>14.78126508276737</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88248027624751</v>
+        <v>24.90508764248705</v>
       </c>
       <c r="C25">
-        <v>16.65592223681719</v>
+        <v>14.78801359350622</v>
       </c>
       <c r="D25">
-        <v>3.468363043619606</v>
+        <v>5.135285234834874</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.08834358172071</v>
+        <v>40.37822654529858</v>
       </c>
       <c r="G25">
-        <v>2.047009393486822</v>
+        <v>2.079671413369328</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.9472398096357</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.68923270584575</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.39716181922842</v>
+        <v>20.62238439696901</v>
       </c>
       <c r="L25">
-        <v>19.36586215454769</v>
+        <v>6.494344193876186</v>
       </c>
       <c r="M25">
+        <v>14.32497577946288</v>
+      </c>
+      <c r="N25">
+        <v>15.01169938964152</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.88378663275777</v>
+        <v>20.61218845515294</v>
       </c>
       <c r="C2">
-        <v>13.53749818910882</v>
+        <v>11.38759993571906</v>
       </c>
       <c r="D2">
-        <v>5.24311524794059</v>
+        <v>4.303238461866652</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.04813886741611</v>
+        <v>16.26580769085717</v>
       </c>
       <c r="G2">
-        <v>2.09582046209609</v>
+        <v>19.97891972606728</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.569131509975879</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.55549661420755</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.74957568931337</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.396483378985937</v>
+        <v>8.107994774573697</v>
       </c>
       <c r="M2">
-        <v>13.54117371385239</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.20230768668378</v>
+        <v>11.63629612025727</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.35341837350599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.45303935078147</v>
+        <v>19.25813561944913</v>
       </c>
       <c r="C3">
-        <v>12.63912695527313</v>
+        <v>11.06612783933541</v>
       </c>
       <c r="D3">
-        <v>5.31943919056986</v>
+        <v>4.112093157685579</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.47576403439669</v>
+        <v>15.69441259186723</v>
       </c>
       <c r="G3">
-        <v>2.107031626152822</v>
+        <v>19.11927588851008</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.5501715648084</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.66008434318085</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.39911195113173</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.336941153208367</v>
+        <v>7.811634453018435</v>
       </c>
       <c r="M3">
-        <v>13.00850232373646</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.34309469052863</v>
+        <v>11.70211557167549</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.14262737688587</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54528754722056</v>
+        <v>18.37661651847262</v>
       </c>
       <c r="C4">
-        <v>12.06171131757696</v>
+        <v>10.86388442061107</v>
       </c>
       <c r="D4">
-        <v>5.367842881904004</v>
+        <v>3.989571622859956</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.51526533943509</v>
+        <v>15.34873161450175</v>
       </c>
       <c r="G4">
-        <v>2.114067693966133</v>
+        <v>18.59591366929225</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.544203776067672</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.73627887932599</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.52862519532695</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.303601334025036</v>
+        <v>7.628535541379063</v>
       </c>
       <c r="M4">
-        <v>12.68148479832247</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.43486544400517</v>
+        <v>11.7461467620115</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.02368534360675</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.16821618070606</v>
+        <v>18.00474119820536</v>
       </c>
       <c r="C5">
-        <v>11.81983327908545</v>
+        <v>10.78034062390163</v>
       </c>
       <c r="D5">
-        <v>5.3879483122156</v>
+        <v>3.938383768261163</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.1254191640584</v>
+        <v>15.20937701174303</v>
       </c>
       <c r="G5">
-        <v>2.116976061802723</v>
+        <v>18.38412043748878</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.543155475983109</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.77019523498653</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.17551200216378</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.290806800586343</v>
+        <v>7.553749545860859</v>
       </c>
       <c r="M5">
-        <v>12.54837647135978</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.4735497067613</v>
+        <v>11.76498038642285</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.9778426132567</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.1051792728768</v>
+        <v>17.94222638849907</v>
       </c>
       <c r="C6">
-        <v>11.77927024261226</v>
+        <v>10.76640299320845</v>
       </c>
       <c r="D6">
-        <v>5.391309624195716</v>
+        <v>3.929809223955591</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.06079052943466</v>
+        <v>15.18633513267655</v>
       </c>
       <c r="G6">
-        <v>2.117461554887218</v>
+        <v>18.34905276745682</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.543063688133228</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.77599600198699</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.1235879440315</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.288729573662192</v>
+        <v>7.541324500864596</v>
       </c>
       <c r="M6">
-        <v>12.52628779772103</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.48004950618911</v>
+        <v>11.76816094438063</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.97038865496445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.54023086895542</v>
+        <v>18.37165255001963</v>
       </c>
       <c r="C7">
-        <v>12.05847599454344</v>
+        <v>10.86276215774531</v>
       </c>
       <c r="D7">
-        <v>5.368112497589152</v>
+        <v>3.988886330361869</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.51000093403762</v>
+        <v>15.34684581167254</v>
       </c>
       <c r="G7">
-        <v>2.114106747223864</v>
+        <v>18.59305086156852</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.544184093994325</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.73672486903101</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.5237418354256</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.30342560040535</v>
+        <v>7.627527490325711</v>
       </c>
       <c r="M7">
-        <v>12.67968882591433</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.43538200771878</v>
+        <v>11.74639717749269</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.02305647543992</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.39663588667141</v>
+        <v>20.15568615969941</v>
       </c>
       <c r="C8">
-        <v>13.23303990090896</v>
+        <v>11.27781863671247</v>
       </c>
       <c r="D8">
-        <v>5.269107256923032</v>
+        <v>4.238422671598683</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.50513052975354</v>
+        <v>16.06784718026893</v>
       </c>
       <c r="G8">
-        <v>2.099656204885211</v>
+        <v>19.68179517438443</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.561391078055327</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.58898356832346</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.29240369751618</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.375274279475001</v>
+        <v>8.006109670164872</v>
       </c>
       <c r="M8">
-        <v>13.35757820502383</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.24971181186712</v>
+        <v>11.65822791374475</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.27855913009578</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.86529569528937</v>
+        <v>23.25869287714734</v>
       </c>
       <c r="C9">
-        <v>15.33636877140807</v>
+        <v>12.04945506991879</v>
       </c>
       <c r="D9">
-        <v>5.087613232349082</v>
+        <v>4.685487741840404</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.44641652853412</v>
+        <v>17.5137080812524</v>
       </c>
       <c r="G9">
-        <v>2.072388183553965</v>
+        <v>21.8380197794304</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.641999606268766</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.40105044346644</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.44126154989693</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.542536180505946</v>
+        <v>8.73506505396951</v>
       </c>
       <c r="M9">
-        <v>14.68223103418641</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.93060716653107</v>
+        <v>11.51495292073969</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.86272672047881</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.40379236906919</v>
+        <v>25.30074309941667</v>
       </c>
       <c r="C10">
-        <v>16.76787147913044</v>
+        <v>12.58611767156347</v>
       </c>
       <c r="D10">
-        <v>4.962833386120188</v>
+        <v>4.986730544531524</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.35205761904235</v>
+        <v>18.58459733916163</v>
       </c>
       <c r="G10">
-        <v>2.052788725607897</v>
+        <v>23.41867232732297</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.732194757107709</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.33458575947623</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.57265205918327</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.682708824223976</v>
+        <v>9.257231085298411</v>
       </c>
       <c r="M10">
-        <v>15.64785035498349</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.72802471568575</v>
+        <v>11.42910699432539</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.34196471525407</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.51812423499148</v>
+        <v>26.17888664710865</v>
       </c>
       <c r="C11">
-        <v>17.39659032247062</v>
+        <v>12.82288927970778</v>
       </c>
       <c r="D11">
-        <v>4.908211408875728</v>
+        <v>5.117647990800454</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.67646169571172</v>
+        <v>19.07171291562735</v>
       </c>
       <c r="G11">
-        <v>2.043910740551482</v>
+        <v>24.13428450332341</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.780426262835737</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.3220191704599</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.50596011406417</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.750526287400247</v>
+        <v>9.490989614297932</v>
       </c>
       <c r="M11">
-        <v>16.08509884593763</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.64398973350777</v>
+        <v>11.39459325214082</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.57059091060837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.93458507150604</v>
+        <v>26.50417807321596</v>
       </c>
       <c r="C12">
-        <v>17.63165380031475</v>
+        <v>12.91143295715512</v>
       </c>
       <c r="D12">
-        <v>4.887868513432339</v>
+        <v>5.166329695435447</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.17852958620227</v>
+        <v>19.25603203467274</v>
       </c>
       <c r="G12">
-        <v>2.040548941999608</v>
+        <v>24.40460076507474</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.799761661579259</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.31997821716881</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.85446830346097</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.776817512552843</v>
+        <v>9.578905673090047</v>
       </c>
       <c r="M12">
-        <v>16.31118930852703</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.61345722218485</v>
+        <v>11.38220538471696</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.65866493493279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.84513254536129</v>
+        <v>26.43444184440546</v>
       </c>
       <c r="C13">
-        <v>17.58115918666246</v>
+        <v>12.89241401099937</v>
       </c>
       <c r="D13">
-        <v>4.892233913794125</v>
+        <v>5.155885164067471</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.07037204724224</v>
+        <v>19.21634381181588</v>
       </c>
       <c r="G13">
-        <v>2.041273053947679</v>
+        <v>24.34641554892202</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.79554925085641</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.32029408102287</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.77962424791138</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.771127606563238</v>
+        <v>9.559999050816979</v>
       </c>
       <c r="M13">
-        <v>16.26244493061476</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.61997343353289</v>
+        <v>11.38484252922514</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.63963045226014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.55249526934687</v>
+        <v>26.2057933555848</v>
       </c>
       <c r="C14">
-        <v>17.41598829795936</v>
+        <v>12.83019651005403</v>
       </c>
       <c r="D14">
-        <v>4.906530723988018</v>
+        <v>5.121671047530901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.71775479962757</v>
+        <v>19.08688048519233</v>
       </c>
       <c r="G14">
-        <v>2.043634194553396</v>
+        <v>24.15653789890964</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.781995332882957</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.32179577789131</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.53472874702032</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.752676880978603</v>
+        <v>9.498234917781808</v>
       </c>
       <c r="M14">
-        <v>16.10293357906966</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.64145118983705</v>
+        <v>11.3935602582224</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.57780695524327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.37253851112595</v>
+        <v>26.06479824704567</v>
       </c>
       <c r="C15">
-        <v>17.3144301184546</v>
+        <v>12.79193946303202</v>
       </c>
       <c r="D15">
-        <v>4.915333518252345</v>
+        <v>5.100597142419834</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.50184460627857</v>
+        <v>19.00755844679883</v>
       </c>
       <c r="G15">
-        <v>2.045080303514981</v>
+        <v>24.04014044447241</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.773833688307419</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.32307479845716</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.38409262118693</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.741455630636192</v>
+        <v>9.460322441326827</v>
       </c>
       <c r="M15">
-        <v>16.02755062105033</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.65477884368226</v>
+        <v>11.39898979817221</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.54013252015476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.33017906686193</v>
+        <v>25.24233745002526</v>
       </c>
       <c r="C16">
-        <v>16.72634845659378</v>
+        <v>12.57049086409821</v>
       </c>
       <c r="D16">
-        <v>4.966448800908939</v>
+        <v>4.978050380056564</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.26556898545</v>
+        <v>18.55275035197042</v>
       </c>
       <c r="G16">
-        <v>2.053369244358253</v>
+        <v>23.37182029642545</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.729190716063686</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.3357776746579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.51095315739481</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.678360602194755</v>
+        <v>9.241873033829659</v>
       </c>
       <c r="M16">
-        <v>15.61923453470362</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.73369000527564</v>
+        <v>11.43145631809761</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.32723471137719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.68056622470153</v>
+        <v>24.72481769034582</v>
       </c>
       <c r="C17">
-        <v>16.35996448368929</v>
+        <v>12.43271082393494</v>
       </c>
       <c r="D17">
-        <v>4.998375835571375</v>
+        <v>4.901293648108711</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.50790583043187</v>
+        <v>18.27362740861259</v>
       </c>
       <c r="G17">
-        <v>2.058460361612455</v>
+        <v>22.96080991808845</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.703674125650778</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.34822157577497</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.96622277821069</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.640710158132911</v>
+        <v>9.106847867073236</v>
       </c>
       <c r="M17">
-        <v>15.3682247401182</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.78426029768164</v>
+        <v>11.45255596350746</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.19932861440914</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.3030981941046</v>
+        <v>24.42236905713359</v>
       </c>
       <c r="C18">
-        <v>16.1470997521021</v>
+        <v>12.35277378398652</v>
       </c>
       <c r="D18">
-        <v>5.016938480943196</v>
+        <v>4.85656983238367</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.07234677369923</v>
+        <v>18.11308651904375</v>
       </c>
       <c r="G18">
-        <v>2.061392564553343</v>
+        <v>22.72409242787006</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.689673476327297</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.35703135138767</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.6494741520276</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.619434193741965</v>
+        <v>9.028832327230662</v>
       </c>
       <c r="M18">
-        <v>15.22365805189049</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.81410300815584</v>
+        <v>11.46511720542305</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.12676175931167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.17462816868001</v>
+        <v>24.31914148295078</v>
       </c>
       <c r="C19">
-        <v>16.07465550618624</v>
+        <v>12.32559192589849</v>
       </c>
       <c r="D19">
-        <v>5.023256783274079</v>
+        <v>4.841328772722427</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.92491005329053</v>
+        <v>18.05873517657498</v>
       </c>
       <c r="G19">
-        <v>2.062386184214205</v>
+        <v>22.64389583257567</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.685048050067788</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.36029260140466</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.54163012468001</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.612294931159905</v>
+        <v>9.002359041255822</v>
       </c>
       <c r="M19">
-        <v>15.17467749126956</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.82433367189243</v>
+        <v>11.46944240915947</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.10236469699981</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.75011276471909</v>
+        <v>24.78040333679448</v>
       </c>
       <c r="C20">
-        <v>16.39918571755346</v>
+        <v>12.44744956035088</v>
       </c>
       <c r="D20">
-        <v>4.994956331991332</v>
+        <v>4.909524193156509</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.58853585117996</v>
+        <v>18.30334123800888</v>
       </c>
       <c r="G20">
-        <v>2.057918033568804</v>
+        <v>23.00459669747873</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.706320200966591</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.3467246058336</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.02456361418194</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.644678640162144</v>
+        <v>9.121258491011083</v>
       </c>
       <c r="M20">
-        <v>15.39496512998548</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.77879793576937</v>
+        <v>11.45026564931526</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.21284100386174</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.63859685542878</v>
+        <v>26.27314901293085</v>
       </c>
       <c r="C21">
-        <v>17.46458305703417</v>
+        <v>12.84850203423582</v>
       </c>
       <c r="D21">
-        <v>4.902321831815777</v>
+        <v>5.131744918385476</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.82131029085089</v>
+        <v>19.12491180128157</v>
       </c>
       <c r="G21">
-        <v>2.04294071380601</v>
+        <v>24.21232898325734</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.785947101831447</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.32127952284501</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.60679130972623</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.758079506317725</v>
+        <v>9.516393339058006</v>
       </c>
       <c r="M21">
-        <v>16.14987367211317</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.63510658121005</v>
+        <v>11.39098090621444</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.5959255877608</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.84087972471543</v>
+        <v>27.2065603478701</v>
       </c>
       <c r="C22">
-        <v>18.14340951129298</v>
+        <v>13.10408225375118</v>
       </c>
       <c r="D22">
-        <v>4.843791334240274</v>
+        <v>5.271764390185282</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.28390149201523</v>
+        <v>19.66098650566609</v>
       </c>
       <c r="G22">
-        <v>2.033149731134228</v>
+        <v>24.99768837990162</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.844246623783061</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.32057265370368</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.61238621056322</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.835766173490835</v>
+        <v>9.771100170753039</v>
       </c>
       <c r="M22">
-        <v>16.80467416424037</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.54878460931612</v>
+        <v>11.35622342968404</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.85501264859833</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.20200781258887</v>
+        <v>26.71221994411059</v>
       </c>
       <c r="C23">
-        <v>17.78262661063</v>
+        <v>12.96828941185126</v>
       </c>
       <c r="D23">
-        <v>4.874832633220987</v>
+        <v>5.197514312695386</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.50289471879481</v>
+        <v>19.37499202472326</v>
       </c>
       <c r="G23">
-        <v>2.038377549555378</v>
+        <v>24.57893843650857</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.812547143387999</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.31943452341592</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.07817796632746</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.793966276425604</v>
+        <v>9.635499107993294</v>
       </c>
       <c r="M23">
-        <v>16.45687299214948</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.59411638577862</v>
+        <v>11.3743990845346</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.71594491579946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.71868324582207</v>
+        <v>24.755288394235</v>
       </c>
       <c r="C24">
-        <v>16.38146074601146</v>
+        <v>12.44078843275784</v>
       </c>
       <c r="D24">
-        <v>4.996501646067844</v>
+        <v>4.905805017027013</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.55208293159046</v>
+        <v>18.28990782132795</v>
       </c>
       <c r="G24">
-        <v>2.058163203325039</v>
+        <v>22.98480199556549</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.705121828698356</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.34739624250402</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.99819888250001</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.642883339686366</v>
+        <v>9.11474465108124</v>
       </c>
       <c r="M24">
-        <v>15.38287660297908</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.78126508276737</v>
+        <v>11.4512997607812</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.20672903511187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.90508764248705</v>
+        <v>22.46125010320793</v>
       </c>
       <c r="C25">
-        <v>14.78801359350622</v>
+        <v>11.84572523734223</v>
       </c>
       <c r="D25">
-        <v>5.135285234834874</v>
+        <v>4.569237682429144</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.37822654529858</v>
+        <v>17.12032920198526</v>
       </c>
       <c r="G25">
-        <v>2.079671413369328</v>
+        <v>21.25427508084946</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.614920400545827</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.44002335596176</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.62238439696901</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.494344193876186</v>
+        <v>8.539881233909043</v>
       </c>
       <c r="M25">
-        <v>14.32497577946288</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.01169938964152</v>
+        <v>11.55040643427472</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.69583118356313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61218845515294</v>
+        <v>13.889835214901</v>
       </c>
       <c r="C2">
-        <v>11.38759993571906</v>
+        <v>11.56967659086022</v>
       </c>
       <c r="D2">
-        <v>4.303238461866652</v>
+        <v>4.007240567040604</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.26580769085717</v>
+        <v>20.20909231808771</v>
       </c>
       <c r="G2">
-        <v>19.97891972606728</v>
+        <v>21.91095700889505</v>
       </c>
       <c r="H2">
-        <v>7.569131509975879</v>
+        <v>12.42426831528762</v>
       </c>
       <c r="I2">
-        <v>11.55549661420755</v>
+        <v>19.2168517511913</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.107994774573697</v>
+        <v>10.61908329509709</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63629612025727</v>
+        <v>16.46556401207404</v>
       </c>
       <c r="O2">
-        <v>12.35341837350599</v>
+        <v>18.0108287304179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25813561944913</v>
+        <v>13.31967578700308</v>
       </c>
       <c r="C3">
-        <v>11.06612783933541</v>
+        <v>11.46732606047098</v>
       </c>
       <c r="D3">
-        <v>4.112093157685579</v>
+        <v>3.934638899796703</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.69441259186723</v>
+        <v>20.17811085246719</v>
       </c>
       <c r="G3">
-        <v>19.11927588851008</v>
+        <v>21.82759489501826</v>
       </c>
       <c r="H3">
-        <v>7.5501715648084</v>
+        <v>12.45914635260138</v>
       </c>
       <c r="I3">
-        <v>11.66008434318085</v>
+        <v>19.30845552554066</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.811634453018435</v>
+        <v>10.58939611999932</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.70211557167549</v>
+        <v>16.49807403837879</v>
       </c>
       <c r="O3">
-        <v>12.14262737688587</v>
+        <v>18.04553542684458</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.37661651847262</v>
+        <v>12.95776369799554</v>
       </c>
       <c r="C4">
-        <v>10.86388442061107</v>
+        <v>11.4039979103941</v>
       </c>
       <c r="D4">
-        <v>3.989571622859956</v>
+        <v>3.888789959621477</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.34873161450175</v>
+        <v>20.16537637974609</v>
       </c>
       <c r="G4">
-        <v>18.59591366929225</v>
+        <v>21.78524422229777</v>
       </c>
       <c r="H4">
-        <v>7.544203776067672</v>
+        <v>12.48283609312157</v>
       </c>
       <c r="I4">
-        <v>11.73627887932599</v>
+        <v>19.36903535652761</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.628535541379063</v>
+        <v>10.57328946317169</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7461467620115</v>
+        <v>16.51973082318207</v>
       </c>
       <c r="O4">
-        <v>12.02368534360675</v>
+        <v>18.07152697674239</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00474119820536</v>
+        <v>12.80751241374946</v>
       </c>
       <c r="C5">
-        <v>10.78034062390163</v>
+        <v>11.37808564609683</v>
       </c>
       <c r="D5">
-        <v>3.938383768261163</v>
+        <v>3.869799484577842</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.20937701174303</v>
+        <v>20.16177255877975</v>
       </c>
       <c r="G5">
-        <v>18.38412043748878</v>
+        <v>21.7702218775624</v>
       </c>
       <c r="H5">
-        <v>7.543155475983109</v>
+        <v>12.49306122377543</v>
       </c>
       <c r="I5">
-        <v>11.77019523498653</v>
+        <v>19.39481036204846</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.553749545860859</v>
+        <v>10.56726432160638</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.76498038642285</v>
+        <v>16.52898312953872</v>
       </c>
       <c r="O5">
-        <v>11.9778426132567</v>
+        <v>18.08329313974115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.94222638849907</v>
+        <v>12.78240257860907</v>
       </c>
       <c r="C6">
-        <v>10.76640299320845</v>
+        <v>11.37377703756553</v>
       </c>
       <c r="D6">
-        <v>3.929809223955591</v>
+        <v>3.866628000594721</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.18633513267655</v>
+        <v>20.16127000619292</v>
       </c>
       <c r="G6">
-        <v>18.34905276745682</v>
+        <v>21.76786282001633</v>
       </c>
       <c r="H6">
-        <v>7.543063688133228</v>
+        <v>12.49479359086019</v>
       </c>
       <c r="I6">
-        <v>11.77599600198699</v>
+        <v>19.39915595726479</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.541324500864596</v>
+        <v>10.56629650857453</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.76816094438063</v>
+        <v>16.53054527615754</v>
       </c>
       <c r="O6">
-        <v>11.97038865496445</v>
+        <v>18.08531774298448</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37165255001963</v>
+        <v>12.95574827776673</v>
       </c>
       <c r="C7">
-        <v>10.86276215774531</v>
+        <v>11.40364885426722</v>
       </c>
       <c r="D7">
-        <v>3.988886330361869</v>
+        <v>3.888535071488211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.34684581167254</v>
+        <v>20.16532135291771</v>
       </c>
       <c r="G7">
-        <v>18.59305086156852</v>
+        <v>21.78503255632783</v>
       </c>
       <c r="H7">
-        <v>7.544184093994325</v>
+        <v>12.48297168014174</v>
       </c>
       <c r="I7">
-        <v>11.73672486903101</v>
+        <v>19.36937856338499</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.627527490325711</v>
+        <v>10.57320601960742</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.74639717749269</v>
+        <v>16.51985387329614</v>
       </c>
       <c r="O7">
-        <v>12.02305647543992</v>
+        <v>18.07168090825772</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.15568615969941</v>
+        <v>13.69581576888644</v>
       </c>
       <c r="C8">
-        <v>11.27781863671247</v>
+        <v>11.53449645250346</v>
       </c>
       <c r="D8">
-        <v>4.238422671598683</v>
+        <v>3.98247896566957</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.06784718026893</v>
+        <v>20.19710788715966</v>
       </c>
       <c r="G8">
-        <v>19.68179517438443</v>
+        <v>21.88039013950674</v>
       </c>
       <c r="H8">
-        <v>7.561391078055327</v>
+        <v>12.43582186278695</v>
       </c>
       <c r="I8">
-        <v>11.58898356832346</v>
+        <v>19.24753598783442</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.006109670164872</v>
+        <v>10.6084100272069</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.65822791374475</v>
+        <v>16.47642195427327</v>
       </c>
       <c r="O8">
-        <v>12.27855913009578</v>
+        <v>18.02182238400771</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.25869287714734</v>
+        <v>15.04540001548325</v>
       </c>
       <c r="C9">
-        <v>12.04945506991879</v>
+        <v>11.78653325793697</v>
       </c>
       <c r="D9">
-        <v>4.685487741840404</v>
+        <v>4.156077049121933</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.5137080812524</v>
+        <v>20.30906843388415</v>
       </c>
       <c r="G9">
-        <v>21.8380197794304</v>
+        <v>22.13665650644751</v>
       </c>
       <c r="H9">
-        <v>7.641999606268766</v>
+        <v>12.36143253409633</v>
       </c>
       <c r="I9">
-        <v>11.40105044346644</v>
+        <v>19.04307679307749</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.73506505396951</v>
+        <v>10.69403393976173</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.51495292073969</v>
+        <v>16.4046770082027</v>
       </c>
       <c r="O9">
-        <v>12.86272672047881</v>
+        <v>17.96130460460294</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.30074309941667</v>
+        <v>15.96608505375053</v>
       </c>
       <c r="C10">
-        <v>12.58611767156347</v>
+        <v>11.96798731675119</v>
       </c>
       <c r="D10">
-        <v>4.986730544531524</v>
+        <v>4.276466600038389</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.58459733916163</v>
+        <v>20.42111083086978</v>
       </c>
       <c r="G10">
-        <v>23.41867232732297</v>
+        <v>22.36580195270198</v>
       </c>
       <c r="H10">
-        <v>7.732194757107709</v>
+        <v>12.31782696126215</v>
       </c>
       <c r="I10">
-        <v>11.33458575947623</v>
+        <v>18.91398582315201</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.257231085298411</v>
+        <v>10.76669623381508</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.42910699432539</v>
+        <v>16.36011268739894</v>
       </c>
       <c r="O10">
-        <v>13.34196471525407</v>
+        <v>17.93967803596224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.17888664710865</v>
+        <v>16.36807398589573</v>
       </c>
       <c r="C11">
-        <v>12.82288927970778</v>
+        <v>12.04953205768526</v>
       </c>
       <c r="D11">
-        <v>5.117647990800454</v>
+        <v>4.329551915850995</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.07171291562735</v>
+        <v>20.47841422168748</v>
       </c>
       <c r="G11">
-        <v>24.13428450332341</v>
+        <v>22.47855542360213</v>
       </c>
       <c r="H11">
-        <v>7.780426262835737</v>
+        <v>12.3003945917102</v>
       </c>
       <c r="I11">
-        <v>11.3220191704599</v>
+        <v>18.85987010651861</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.490989614297932</v>
+        <v>10.80178358142286</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.39459325214082</v>
+        <v>16.34160038353485</v>
       </c>
       <c r="O11">
-        <v>13.57059091060837</v>
+        <v>17.93481546507856</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.50417807321596</v>
+        <v>16.51777639957509</v>
       </c>
       <c r="C12">
-        <v>12.91143295715512</v>
+        <v>12.08025095846045</v>
       </c>
       <c r="D12">
-        <v>5.166329695435447</v>
+        <v>4.349402283414849</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.25603203467274</v>
+        <v>20.501010483682</v>
       </c>
       <c r="G12">
-        <v>24.40460076507474</v>
+        <v>22.52244109718073</v>
       </c>
       <c r="H12">
-        <v>7.799761661579259</v>
+        <v>12.29413951551266</v>
       </c>
       <c r="I12">
-        <v>11.31997821716881</v>
+        <v>18.84004268802413</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.578905673090047</v>
+        <v>10.81535451527712</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.38220538471696</v>
+        <v>16.33484276229051</v>
       </c>
       <c r="O12">
-        <v>13.65866493493279</v>
+        <v>17.93369018636072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.43444184440546</v>
+        <v>16.48564892790218</v>
       </c>
       <c r="C13">
-        <v>12.89241401099937</v>
+        <v>12.07364248449896</v>
       </c>
       <c r="D13">
-        <v>5.155885164067471</v>
+        <v>4.345138510272657</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.21634381181588</v>
+        <v>20.49610433599067</v>
       </c>
       <c r="G13">
-        <v>24.34641554892202</v>
+        <v>22.51293728148462</v>
       </c>
       <c r="H13">
-        <v>7.79554925085641</v>
+        <v>12.29547125428527</v>
       </c>
       <c r="I13">
-        <v>11.32029408102287</v>
+        <v>18.84428326245878</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.559999050816979</v>
+        <v>10.81241927101042</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.38484252922514</v>
+        <v>16.33628691151719</v>
       </c>
       <c r="O13">
-        <v>13.63963045226014</v>
+        <v>17.93390068355458</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.2057933555848</v>
+        <v>16.38044116573822</v>
       </c>
       <c r="C14">
-        <v>12.83019651005403</v>
+        <v>12.0520626270703</v>
       </c>
       <c r="D14">
-        <v>5.121671047530901</v>
+        <v>4.331190122016639</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.08688048519233</v>
+        <v>20.48025534536179</v>
       </c>
       <c r="G14">
-        <v>24.15653789890964</v>
+        <v>22.48214232358023</v>
       </c>
       <c r="H14">
-        <v>7.781995332882957</v>
+        <v>12.29987304218734</v>
       </c>
       <c r="I14">
-        <v>11.32179577789131</v>
+        <v>18.85822555119129</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.498234917781808</v>
+        <v>10.80289442476169</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.3935602582224</v>
+        <v>16.34103937079363</v>
       </c>
       <c r="O14">
-        <v>13.57780695524327</v>
+        <v>17.93470853491763</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.06479824704567</v>
+        <v>16.31566718044349</v>
       </c>
       <c r="C15">
-        <v>12.79193946303202</v>
+        <v>12.03882297592797</v>
       </c>
       <c r="D15">
-        <v>5.100597142419834</v>
+        <v>4.322613235710087</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.00755844679883</v>
+        <v>20.47066371038763</v>
       </c>
       <c r="G15">
-        <v>24.04014044447241</v>
+        <v>22.46343316882865</v>
       </c>
       <c r="H15">
-        <v>7.773833688307419</v>
+        <v>12.30261436127708</v>
       </c>
       <c r="I15">
-        <v>11.32307479845716</v>
+        <v>18.86685228195772</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.460322441326827</v>
+        <v>10.79709693071321</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.39898979817221</v>
+        <v>16.3439832678098</v>
       </c>
       <c r="O15">
-        <v>13.54013252015476</v>
+        <v>17.93529663016002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.24233745002526</v>
+        <v>15.93946636391652</v>
       </c>
       <c r="C16">
-        <v>12.57049086409821</v>
+        <v>11.96263663691474</v>
       </c>
       <c r="D16">
-        <v>4.978050380056564</v>
+        <v>4.272962643538342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.55275035197042</v>
+        <v>20.41749221174659</v>
       </c>
       <c r="G16">
-        <v>23.37182029642545</v>
+        <v>22.35860156898627</v>
       </c>
       <c r="H16">
-        <v>7.729190716063686</v>
+        <v>12.3190146256889</v>
       </c>
       <c r="I16">
-        <v>11.3357776746579</v>
+        <v>18.91761534550605</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.241873033829659</v>
+        <v>10.7644434083079</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.43145631809761</v>
+        <v>16.36135788470047</v>
       </c>
       <c r="O16">
-        <v>13.32723471137719</v>
+        <v>17.94009599877065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.72481769034582</v>
+        <v>15.70429051365055</v>
       </c>
       <c r="C17">
-        <v>12.43271082393494</v>
+        <v>11.91563086559552</v>
       </c>
       <c r="D17">
-        <v>4.901293648108711</v>
+        <v>4.242065701199803</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.27362740861259</v>
+        <v>20.38648609110884</v>
       </c>
       <c r="G17">
-        <v>22.96080991808845</v>
+        <v>22.2964468180001</v>
       </c>
       <c r="H17">
-        <v>7.703674125650778</v>
+        <v>12.32969174946489</v>
       </c>
       <c r="I17">
-        <v>11.34822157577497</v>
+        <v>18.94993882743104</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.106847867073236</v>
+        <v>10.74492650213195</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.45255596350746</v>
+        <v>16.37246710617978</v>
       </c>
       <c r="O17">
-        <v>13.19932861440914</v>
+        <v>17.94431518257172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.42236905713359</v>
+        <v>15.56744397358824</v>
       </c>
       <c r="C18">
-        <v>12.35277378398652</v>
+        <v>11.88850127349576</v>
       </c>
       <c r="D18">
-        <v>4.85656983238367</v>
+        <v>4.224136990122237</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.11308651904375</v>
+        <v>20.36924940052589</v>
       </c>
       <c r="G18">
-        <v>22.72409242787006</v>
+        <v>22.26150078068444</v>
       </c>
       <c r="H18">
-        <v>7.689673476327297</v>
+        <v>12.33605920097417</v>
       </c>
       <c r="I18">
-        <v>11.35703135138767</v>
+        <v>18.96896406332104</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.028832327230662</v>
+        <v>10.73389276072755</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.46511720542305</v>
+        <v>16.37902254918048</v>
       </c>
       <c r="O18">
-        <v>13.12676175931167</v>
+        <v>17.94721025516597</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.31914148295078</v>
+        <v>15.52084212193784</v>
       </c>
       <c r="C19">
-        <v>12.32559192589849</v>
+        <v>11.87930017727068</v>
       </c>
       <c r="D19">
-        <v>4.841328772722427</v>
+        <v>4.21803989039589</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.05873517657498</v>
+        <v>20.3635163317164</v>
       </c>
       <c r="G19">
-        <v>22.64389583257567</v>
+        <v>22.24980774058963</v>
       </c>
       <c r="H19">
-        <v>7.685048050067788</v>
+        <v>12.33825395394789</v>
       </c>
       <c r="I19">
-        <v>11.36029260140466</v>
+        <v>18.97548008555639</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.002359041255822</v>
+        <v>10.73019012184611</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.46944240915947</v>
+        <v>16.38127058714388</v>
       </c>
       <c r="O19">
-        <v>13.10236469699981</v>
+        <v>17.948270882932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.78040333679448</v>
+        <v>15.72948964933009</v>
       </c>
       <c r="C20">
-        <v>12.44744956035088</v>
+        <v>11.92064446840698</v>
       </c>
       <c r="D20">
-        <v>4.909524193156509</v>
+        <v>4.245371121473146</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.30334123800888</v>
+        <v>20.38972503453247</v>
       </c>
       <c r="G20">
-        <v>23.00459669747873</v>
+        <v>22.30298036505232</v>
       </c>
       <c r="H20">
-        <v>7.706320200966591</v>
+        <v>12.32853173143255</v>
       </c>
       <c r="I20">
-        <v>11.3467246058336</v>
+        <v>18.94645304221703</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.121258491011083</v>
+        <v>10.74698431072956</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.45026564931526</v>
+        <v>16.37126736381922</v>
       </c>
       <c r="O20">
-        <v>13.21284100386174</v>
+        <v>17.94381756895995</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.27314901293085</v>
+        <v>16.41141241585608</v>
       </c>
       <c r="C21">
-        <v>12.84850203423582</v>
+        <v>12.05840563595042</v>
       </c>
       <c r="D21">
-        <v>5.131744918385476</v>
+        <v>4.335294016208902</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.12491180128157</v>
+        <v>20.48488636271712</v>
       </c>
       <c r="G21">
-        <v>24.21232898325734</v>
+        <v>22.49115559762133</v>
       </c>
       <c r="H21">
-        <v>7.785947101831447</v>
+        <v>12.29857073143295</v>
       </c>
       <c r="I21">
-        <v>11.32127952284501</v>
+        <v>18.85411229554052</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.516393339058006</v>
+        <v>10.80568445972161</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.39098090621444</v>
+        <v>16.33963660740077</v>
       </c>
       <c r="O21">
-        <v>13.5959255877608</v>
+        <v>17.93445181310526</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.2065603478701</v>
+        <v>16.84235111698269</v>
       </c>
       <c r="C22">
-        <v>13.10408225375118</v>
+        <v>12.14749858264434</v>
       </c>
       <c r="D22">
-        <v>5.271764390185282</v>
+        <v>4.392591346581975</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.66098650566609</v>
+        <v>20.55229882048068</v>
       </c>
       <c r="G22">
-        <v>24.99768837990162</v>
+        <v>22.62104712955562</v>
       </c>
       <c r="H22">
-        <v>7.844246623783061</v>
+        <v>12.28100749733801</v>
       </c>
       <c r="I22">
-        <v>11.32057265370368</v>
+        <v>18.7976396793336</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.771100170753039</v>
+        <v>10.84570034467827</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.35622342968404</v>
+        <v>16.32043610260769</v>
       </c>
       <c r="O22">
-        <v>13.85501264859833</v>
+        <v>17.93250448306137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.71221994411059</v>
+        <v>16.61372910179739</v>
       </c>
       <c r="C23">
-        <v>12.96828941185126</v>
+        <v>12.10003958015338</v>
       </c>
       <c r="D23">
-        <v>5.197514312695386</v>
+        <v>4.362148623263792</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.37499202472326</v>
+        <v>20.51584708227114</v>
       </c>
       <c r="G23">
-        <v>24.57893843650857</v>
+        <v>22.55110208621449</v>
       </c>
       <c r="H23">
-        <v>7.812547143387999</v>
+        <v>12.29019653080474</v>
       </c>
       <c r="I23">
-        <v>11.31943452341592</v>
+        <v>18.82742461511357</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.635499107993294</v>
+        <v>10.82419478336882</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.3743990845346</v>
+        <v>16.33054925799166</v>
       </c>
       <c r="O23">
-        <v>13.71594491579946</v>
+        <v>17.93316184428197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.755288394235</v>
+        <v>15.71810222300689</v>
       </c>
       <c r="C24">
-        <v>12.44078843275784</v>
+        <v>11.91837814545452</v>
       </c>
       <c r="D24">
-        <v>4.905805017027013</v>
+        <v>4.243877256140233</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.28990782132795</v>
+        <v>20.3882588720255</v>
       </c>
       <c r="G24">
-        <v>22.98480199556549</v>
+        <v>22.30002409256343</v>
       </c>
       <c r="H24">
-        <v>7.705121828698356</v>
+        <v>12.32905546220151</v>
       </c>
       <c r="I24">
-        <v>11.34739624250402</v>
+        <v>18.94802758897278</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.11474465108124</v>
+        <v>10.74605339302563</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.4512997607812</v>
+        <v>16.37180924210827</v>
       </c>
       <c r="O24">
-        <v>13.20672903511187</v>
+        <v>17.94404107795104</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.46125010320793</v>
+        <v>14.69218468101464</v>
       </c>
       <c r="C25">
-        <v>11.84572523734223</v>
+        <v>11.71893595892688</v>
       </c>
       <c r="D25">
-        <v>4.569237682429144</v>
+        <v>4.110323973085261</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.12032920198526</v>
+        <v>20.27350890846638</v>
       </c>
       <c r="G25">
-        <v>21.25427508084946</v>
+        <v>22.06004016982896</v>
       </c>
       <c r="H25">
-        <v>7.614920400545827</v>
+        <v>12.37961872671726</v>
       </c>
       <c r="I25">
-        <v>11.44002335596176</v>
+        <v>19.09468660812742</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.539881233909043</v>
+        <v>10.66912945243483</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.55040643427472</v>
+        <v>16.42265258448151</v>
       </c>
       <c r="O25">
-        <v>12.69583118356313</v>
+        <v>17.97367326792174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.889835214901</v>
+        <v>20.61218845515294</v>
       </c>
       <c r="C2">
-        <v>11.56967659086022</v>
+        <v>11.38759993571903</v>
       </c>
       <c r="D2">
-        <v>4.007240567040604</v>
+        <v>4.303238461866697</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.20909231808771</v>
+        <v>16.26580769085716</v>
       </c>
       <c r="G2">
-        <v>21.91095700889505</v>
+        <v>19.97891972606729</v>
       </c>
       <c r="H2">
-        <v>12.42426831528762</v>
+        <v>7.56913150997589</v>
       </c>
       <c r="I2">
-        <v>19.2168517511913</v>
+        <v>11.55549661420756</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.61908329509709</v>
+        <v>8.107994774573669</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.46556401207404</v>
+        <v>11.63629612025726</v>
       </c>
       <c r="O2">
-        <v>18.0108287304179</v>
+        <v>12.353418373506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.31967578700308</v>
+        <v>19.25813561944909</v>
       </c>
       <c r="C3">
-        <v>11.46732606047098</v>
+        <v>11.06612783933547</v>
       </c>
       <c r="D3">
-        <v>3.934638899796703</v>
+        <v>4.11209315768563</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.17811085246719</v>
+        <v>15.69441259186732</v>
       </c>
       <c r="G3">
-        <v>21.82759489501826</v>
+        <v>19.11927588851013</v>
       </c>
       <c r="H3">
-        <v>12.45914635260138</v>
+        <v>7.550171564808459</v>
       </c>
       <c r="I3">
-        <v>19.30845552554066</v>
+        <v>11.66008434318098</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.58939611999932</v>
+        <v>7.811634453018448</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.49807403837879</v>
+        <v>11.70211557167551</v>
       </c>
       <c r="O3">
-        <v>18.04553542684458</v>
+        <v>12.14262737688595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.95776369799554</v>
+        <v>18.37661651847258</v>
       </c>
       <c r="C4">
-        <v>11.4039979103941</v>
+        <v>10.86388442061119</v>
       </c>
       <c r="D4">
-        <v>3.888789959621477</v>
+        <v>3.989571622860048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.16537637974609</v>
+        <v>15.34873161450179</v>
       </c>
       <c r="G4">
-        <v>21.78524422229777</v>
+        <v>18.59591366929238</v>
       </c>
       <c r="H4">
-        <v>12.48283609312157</v>
+        <v>7.544203776067676</v>
       </c>
       <c r="I4">
-        <v>19.36903535652761</v>
+        <v>11.73627887932614</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.57328946317169</v>
+        <v>7.628535541378996</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.51973082318207</v>
+        <v>11.74614676201159</v>
       </c>
       <c r="O4">
-        <v>18.07152697674239</v>
+        <v>12.02368534360682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.80751241374946</v>
+        <v>18.00474119820531</v>
       </c>
       <c r="C5">
-        <v>11.37808564609683</v>
+        <v>10.78034062390195</v>
       </c>
       <c r="D5">
-        <v>3.869799484577842</v>
+        <v>3.938383768261295</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.16177255877975</v>
+        <v>15.20937701174305</v>
       </c>
       <c r="G5">
-        <v>21.7702218775624</v>
+        <v>18.38412043748881</v>
       </c>
       <c r="H5">
-        <v>12.49306122377543</v>
+        <v>7.543155475983205</v>
       </c>
       <c r="I5">
-        <v>19.39481036204846</v>
+        <v>11.77019523498667</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.56726432160638</v>
+        <v>7.55374954586088</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.52898312953872</v>
+        <v>11.76498038642295</v>
       </c>
       <c r="O5">
-        <v>18.08329313974115</v>
+        <v>11.97784261325678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.78240257860907</v>
+        <v>17.94222638849905</v>
       </c>
       <c r="C6">
-        <v>11.37377703756553</v>
+        <v>10.76640299320845</v>
       </c>
       <c r="D6">
-        <v>3.866628000594721</v>
+        <v>3.92980922395554</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.16127000619292</v>
+        <v>15.18633513267661</v>
       </c>
       <c r="G6">
-        <v>21.76786282001633</v>
+        <v>18.34905276745677</v>
       </c>
       <c r="H6">
-        <v>12.49479359086019</v>
+        <v>7.543063688133281</v>
       </c>
       <c r="I6">
-        <v>19.39915595726479</v>
+        <v>11.77599600198701</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.56629650857453</v>
+        <v>7.541324500864594</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.53054527615754</v>
+        <v>11.76816094438066</v>
       </c>
       <c r="O6">
-        <v>18.08531774298448</v>
+        <v>11.97038865496449</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95574827776673</v>
+        <v>18.37165255001965</v>
       </c>
       <c r="C7">
-        <v>11.40364885426722</v>
+        <v>10.86276215774528</v>
       </c>
       <c r="D7">
-        <v>3.888535071488211</v>
+        <v>3.988886330361817</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.16532135291771</v>
+        <v>15.34684581167261</v>
       </c>
       <c r="G7">
-        <v>21.78503255632783</v>
+        <v>18.5930508615686</v>
       </c>
       <c r="H7">
-        <v>12.48297168014174</v>
+        <v>7.544184093994394</v>
       </c>
       <c r="I7">
-        <v>19.36937856338499</v>
+        <v>11.73672486903104</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.57320601960742</v>
+        <v>7.627527490325653</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.51985387329614</v>
+        <v>11.74639717749271</v>
       </c>
       <c r="O7">
-        <v>18.07168090825772</v>
+        <v>12.02305647543994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.69581576888644</v>
+        <v>20.1556861596994</v>
       </c>
       <c r="C8">
-        <v>11.53449645250346</v>
+        <v>11.27781863671246</v>
       </c>
       <c r="D8">
-        <v>3.98247896566957</v>
+        <v>4.238422671598689</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.19710788715966</v>
+        <v>16.06784718026894</v>
       </c>
       <c r="G8">
-        <v>21.88039013950674</v>
+        <v>19.68179517438444</v>
       </c>
       <c r="H8">
-        <v>12.43582186278695</v>
+        <v>7.561391078055332</v>
       </c>
       <c r="I8">
-        <v>19.24753598783442</v>
+        <v>11.58898356832347</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.6084100272069</v>
+        <v>8.006109670164877</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.47642195427327</v>
+        <v>11.65822791374471</v>
       </c>
       <c r="O8">
-        <v>18.02182238400771</v>
+        <v>12.27855913009579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.04540001548325</v>
+        <v>23.25869287714736</v>
       </c>
       <c r="C9">
-        <v>11.78653325793697</v>
+        <v>12.04945506991878</v>
       </c>
       <c r="D9">
-        <v>4.156077049121933</v>
+        <v>4.685487741840404</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.30906843388415</v>
+        <v>17.51370808125242</v>
       </c>
       <c r="G9">
-        <v>22.13665650644751</v>
+        <v>21.83801977943044</v>
       </c>
       <c r="H9">
-        <v>12.36143253409633</v>
+        <v>7.641999606268766</v>
       </c>
       <c r="I9">
-        <v>19.04307679307749</v>
+        <v>11.40105044346645</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.69403393976173</v>
+        <v>8.735065053969516</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.4046770082027</v>
+        <v>11.51495292073971</v>
       </c>
       <c r="O9">
-        <v>17.96130460460294</v>
+        <v>12.86272672047882</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.96608505375053</v>
+        <v>25.30074309941669</v>
       </c>
       <c r="C10">
-        <v>11.96798731675119</v>
+        <v>12.58611767156334</v>
       </c>
       <c r="D10">
-        <v>4.276466600038389</v>
+        <v>4.98673054453168</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.42111083086978</v>
+        <v>18.58459733916165</v>
       </c>
       <c r="G10">
-        <v>22.36580195270198</v>
+        <v>23.41867232732307</v>
       </c>
       <c r="H10">
-        <v>12.31782696126215</v>
+        <v>7.732194757107747</v>
       </c>
       <c r="I10">
-        <v>18.91398582315201</v>
+        <v>11.33458575947632</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.76669623381508</v>
+        <v>9.257231085298386</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.36011268739894</v>
+        <v>11.42910699432541</v>
       </c>
       <c r="O10">
-        <v>17.93967803596224</v>
+        <v>13.34196471525415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36807398589573</v>
+        <v>26.17888664710869</v>
       </c>
       <c r="C11">
-        <v>12.04953205768526</v>
+        <v>12.82288927970757</v>
       </c>
       <c r="D11">
-        <v>4.329551915850995</v>
+        <v>5.117647990800545</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.47841422168748</v>
+        <v>19.07171291562733</v>
       </c>
       <c r="G11">
-        <v>22.47855542360213</v>
+        <v>24.1342845033234</v>
       </c>
       <c r="H11">
-        <v>12.3003945917102</v>
+        <v>7.780426262835737</v>
       </c>
       <c r="I11">
-        <v>18.85987010651861</v>
+        <v>11.32201917045985</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.80178358142286</v>
+        <v>9.490989614297932</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.34160038353485</v>
+        <v>11.39459325214076</v>
       </c>
       <c r="O11">
-        <v>17.93481546507856</v>
+        <v>13.57059091060835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.51777639957509</v>
+        <v>26.50417807321599</v>
       </c>
       <c r="C12">
-        <v>12.08025095846045</v>
+        <v>12.91143295715498</v>
       </c>
       <c r="D12">
-        <v>4.349402283414849</v>
+        <v>5.166329695435508</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.501010483682</v>
+        <v>19.25603203467273</v>
       </c>
       <c r="G12">
-        <v>22.52244109718073</v>
+        <v>24.40460076507469</v>
       </c>
       <c r="H12">
-        <v>12.29413951551266</v>
+        <v>7.799761661579259</v>
       </c>
       <c r="I12">
-        <v>18.84004268802413</v>
+        <v>11.31997821716877</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.81535451527712</v>
+        <v>9.578905673090038</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.33484276229051</v>
+        <v>11.38220538471696</v>
       </c>
       <c r="O12">
-        <v>17.93369018636072</v>
+        <v>13.65866493493279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.48564892790218</v>
+        <v>26.43444184440543</v>
       </c>
       <c r="C13">
-        <v>12.07364248449896</v>
+        <v>12.89241401099933</v>
       </c>
       <c r="D13">
-        <v>4.345138510272657</v>
+        <v>5.155885164067533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.49610433599067</v>
+        <v>19.2163438118159</v>
       </c>
       <c r="G13">
-        <v>22.51293728148462</v>
+        <v>24.34641554892202</v>
       </c>
       <c r="H13">
-        <v>12.29547125428527</v>
+        <v>7.795549250856482</v>
       </c>
       <c r="I13">
-        <v>18.84428326245878</v>
+        <v>11.32029408102296</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.81241927101042</v>
+        <v>9.559999050817005</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.33628691151719</v>
+        <v>11.38484252922523</v>
       </c>
       <c r="O13">
-        <v>17.93390068355458</v>
+        <v>13.63963045226019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.38044116573822</v>
+        <v>26.20579335558472</v>
       </c>
       <c r="C14">
-        <v>12.0520626270703</v>
+        <v>12.83019651005403</v>
       </c>
       <c r="D14">
-        <v>4.331190122016639</v>
+        <v>5.12167104753085</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.48025534536179</v>
+        <v>19.0868804851924</v>
       </c>
       <c r="G14">
-        <v>22.48214232358023</v>
+        <v>24.15653789890968</v>
       </c>
       <c r="H14">
-        <v>12.29987304218734</v>
+        <v>7.781995332883035</v>
       </c>
       <c r="I14">
-        <v>18.85822555119129</v>
+        <v>11.32179577789144</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.80289442476169</v>
+        <v>9.498234917781803</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.34103937079363</v>
+        <v>11.39356025822242</v>
       </c>
       <c r="O14">
-        <v>17.93470853491763</v>
+        <v>13.57780695524336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31566718044349</v>
+        <v>26.06479824704568</v>
       </c>
       <c r="C15">
-        <v>12.03882297592797</v>
+        <v>12.7919394630321</v>
       </c>
       <c r="D15">
-        <v>4.322613235710087</v>
+        <v>5.100597142419919</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.47066371038763</v>
+        <v>19.00755844679885</v>
       </c>
       <c r="G15">
-        <v>22.46343316882865</v>
+        <v>24.04014044447245</v>
       </c>
       <c r="H15">
-        <v>12.30261436127708</v>
+        <v>7.773833688307395</v>
       </c>
       <c r="I15">
-        <v>18.86685228195772</v>
+        <v>11.32307479845718</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.79709693071321</v>
+        <v>9.460322441326836</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.3439832678098</v>
+        <v>11.3989897981722</v>
       </c>
       <c r="O15">
-        <v>17.93529663016002</v>
+        <v>13.54013252015476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.93946636391652</v>
+        <v>25.24233745002519</v>
       </c>
       <c r="C16">
-        <v>11.96263663691474</v>
+        <v>12.57049086409812</v>
       </c>
       <c r="D16">
-        <v>4.272962643538342</v>
+        <v>4.978050380056565</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.41749221174659</v>
+        <v>18.55275035197048</v>
       </c>
       <c r="G16">
-        <v>22.35860156898627</v>
+        <v>23.37182029642549</v>
       </c>
       <c r="H16">
-        <v>12.3190146256889</v>
+        <v>7.729190716063691</v>
       </c>
       <c r="I16">
-        <v>18.91761534550605</v>
+        <v>11.33577767465796</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.7644434083079</v>
+        <v>9.241873033829627</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.36135788470047</v>
+        <v>11.43145631809757</v>
       </c>
       <c r="O16">
-        <v>17.94009599877065</v>
+        <v>13.32723471137722</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.70429051365055</v>
+        <v>24.72481769034581</v>
       </c>
       <c r="C17">
-        <v>11.91563086559552</v>
+        <v>12.43271082393503</v>
       </c>
       <c r="D17">
-        <v>4.242065701199803</v>
+        <v>4.901293648108711</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.38648609110884</v>
+        <v>18.27362740861263</v>
       </c>
       <c r="G17">
-        <v>22.2964468180001</v>
+        <v>22.9608099180885</v>
       </c>
       <c r="H17">
-        <v>12.32969174946489</v>
+        <v>7.703674125650815</v>
       </c>
       <c r="I17">
-        <v>18.94993882743104</v>
+        <v>11.34822157577506</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.74492650213195</v>
+        <v>9.106847867073247</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.37246710617978</v>
+        <v>11.45255596350747</v>
       </c>
       <c r="O17">
-        <v>17.94431518257172</v>
+        <v>13.19932861440917</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.56744397358824</v>
+        <v>24.42236905713359</v>
       </c>
       <c r="C18">
-        <v>11.88850127349576</v>
+        <v>12.35277378398678</v>
       </c>
       <c r="D18">
-        <v>4.224136990122237</v>
+        <v>4.856569832383449</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.36924940052589</v>
+        <v>18.11308651904381</v>
       </c>
       <c r="G18">
-        <v>22.26150078068444</v>
+        <v>22.72409242787015</v>
       </c>
       <c r="H18">
-        <v>12.33605920097417</v>
+        <v>7.689673476327307</v>
       </c>
       <c r="I18">
-        <v>18.96896406332104</v>
+        <v>11.35703135138773</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.73389276072755</v>
+        <v>9.028832327230633</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.37902254918048</v>
+        <v>11.46511720542303</v>
       </c>
       <c r="O18">
-        <v>17.94721025516597</v>
+        <v>13.12676175931171</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.52084212193784</v>
+        <v>24.31914148295081</v>
       </c>
       <c r="C19">
-        <v>11.87930017727068</v>
+        <v>12.32559192589827</v>
       </c>
       <c r="D19">
-        <v>4.21803989039589</v>
+        <v>4.841328772722508</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.3635163317164</v>
+        <v>18.05873517657497</v>
       </c>
       <c r="G19">
-        <v>22.24980774058963</v>
+        <v>22.64389583257565</v>
       </c>
       <c r="H19">
-        <v>12.33825395394789</v>
+        <v>7.685048050067794</v>
       </c>
       <c r="I19">
-        <v>18.97548008555639</v>
+        <v>11.36029260140467</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.73019012184611</v>
+        <v>9.002359041255827</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.38127058714388</v>
+        <v>11.4694424091595</v>
       </c>
       <c r="O19">
-        <v>17.948270882932</v>
+        <v>13.10236469699984</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.72948964933009</v>
+        <v>24.78040333679442</v>
       </c>
       <c r="C20">
-        <v>11.92064446840698</v>
+        <v>12.44744956035099</v>
       </c>
       <c r="D20">
-        <v>4.245371121473146</v>
+        <v>4.909524193156735</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.38972503453247</v>
+        <v>18.30334123800885</v>
       </c>
       <c r="G20">
-        <v>22.30298036505232</v>
+        <v>23.00459669747878</v>
       </c>
       <c r="H20">
-        <v>12.32853173143255</v>
+        <v>7.706320200966502</v>
       </c>
       <c r="I20">
-        <v>18.94645304221703</v>
+        <v>11.34672460583366</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.74698431072956</v>
+        <v>9.12125849101108</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.37126736381922</v>
+        <v>11.45026564931527</v>
       </c>
       <c r="O20">
-        <v>17.94381756895995</v>
+        <v>13.21284100386176</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.41141241585608</v>
+        <v>26.27314901293087</v>
       </c>
       <c r="C21">
-        <v>12.05840563595042</v>
+        <v>12.84850203423578</v>
       </c>
       <c r="D21">
-        <v>4.335294016208902</v>
+        <v>5.131744918385437</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.48488636271712</v>
+        <v>19.1249118012816</v>
       </c>
       <c r="G21">
-        <v>22.49115559762133</v>
+        <v>24.21232898325739</v>
       </c>
       <c r="H21">
-        <v>12.29857073143295</v>
+        <v>7.785947101831439</v>
       </c>
       <c r="I21">
-        <v>18.85411229554052</v>
+        <v>11.32127952284505</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.80568445972161</v>
+        <v>9.516393339058023</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.33963660740077</v>
+        <v>11.39098090621446</v>
       </c>
       <c r="O21">
-        <v>17.93445181310526</v>
+        <v>13.59592558776082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.84235111698269</v>
+        <v>27.20656034787019</v>
       </c>
       <c r="C22">
-        <v>12.14749858264434</v>
+        <v>13.10408225375108</v>
       </c>
       <c r="D22">
-        <v>4.392591346581975</v>
+        <v>5.271764390185378</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.55229882048068</v>
+        <v>19.66098650566607</v>
       </c>
       <c r="G22">
-        <v>22.62104712955562</v>
+        <v>24.99768837990165</v>
       </c>
       <c r="H22">
-        <v>12.28100749733801</v>
+        <v>7.844246623782985</v>
       </c>
       <c r="I22">
-        <v>18.7976396793336</v>
+        <v>11.32057265370356</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.84570034467827</v>
+        <v>9.771100170753009</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.32043610260769</v>
+        <v>11.35622342968401</v>
       </c>
       <c r="O22">
-        <v>17.93250448306137</v>
+        <v>13.8550126485983</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.61372910179739</v>
+        <v>26.71221994411055</v>
       </c>
       <c r="C23">
-        <v>12.10003958015338</v>
+        <v>12.9682894118515</v>
       </c>
       <c r="D23">
-        <v>4.362148623263792</v>
+        <v>5.197514312695469</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.51584708227114</v>
+        <v>19.37499202472331</v>
       </c>
       <c r="G23">
-        <v>22.55110208621449</v>
+        <v>24.57893843650867</v>
       </c>
       <c r="H23">
-        <v>12.29019653080474</v>
+        <v>7.812547143388004</v>
       </c>
       <c r="I23">
-        <v>18.82742461511357</v>
+        <v>11.319434523416</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.82419478336882</v>
+        <v>9.635499107993294</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.33054925799166</v>
+        <v>11.37439908453459</v>
       </c>
       <c r="O23">
-        <v>17.93316184428197</v>
+        <v>13.71594491579951</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.71810222300689</v>
+        <v>24.755288394235</v>
       </c>
       <c r="C24">
-        <v>11.91837814545452</v>
+        <v>12.44078843275803</v>
       </c>
       <c r="D24">
-        <v>4.243877256140233</v>
+        <v>4.905805017026927</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.3882588720255</v>
+        <v>18.289907821328</v>
       </c>
       <c r="G24">
-        <v>22.30002409256343</v>
+        <v>22.98480199556552</v>
       </c>
       <c r="H24">
-        <v>12.32905546220151</v>
+        <v>7.705121828698362</v>
       </c>
       <c r="I24">
-        <v>18.94802758897278</v>
+        <v>11.34739624250408</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.74605339302563</v>
+        <v>9.114744651081224</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.37180924210827</v>
+        <v>11.45129976078123</v>
       </c>
       <c r="O24">
-        <v>17.94404107795104</v>
+        <v>13.20672903511188</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69218468101464</v>
+        <v>22.46125010320806</v>
       </c>
       <c r="C25">
-        <v>11.71893595892688</v>
+        <v>11.84572523734193</v>
       </c>
       <c r="D25">
-        <v>4.110323973085261</v>
+        <v>4.569237682429157</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.27350890846638</v>
+        <v>17.12032920198517</v>
       </c>
       <c r="G25">
-        <v>22.06004016982896</v>
+        <v>21.2542750808494</v>
       </c>
       <c r="H25">
-        <v>12.37961872671726</v>
+        <v>7.614920400545733</v>
       </c>
       <c r="I25">
-        <v>19.09468660812742</v>
+        <v>11.44002335596154</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.66912945243483</v>
+        <v>8.539881233909044</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.42265258448151</v>
+        <v>11.55040643427466</v>
       </c>
       <c r="O25">
-        <v>17.97367326792174</v>
+        <v>12.69583118356303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61218845515294</v>
+        <v>13.46189968553709</v>
       </c>
       <c r="C2">
-        <v>11.38759993571903</v>
+        <v>8.166727481248433</v>
       </c>
       <c r="D2">
-        <v>4.303238461866697</v>
+        <v>5.177667315010725</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.26580769085716</v>
+        <v>23.14739090056527</v>
       </c>
       <c r="G2">
-        <v>19.97891972606729</v>
+        <v>31.51882202222442</v>
       </c>
       <c r="H2">
-        <v>7.56913150997589</v>
+        <v>2.887873548093749</v>
       </c>
       <c r="I2">
-        <v>11.55549661420756</v>
+        <v>3.394476439553794</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.06497586001358</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.33943252437019</v>
       </c>
       <c r="L2">
-        <v>8.107994774573669</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.31701859294501</v>
       </c>
       <c r="N2">
-        <v>11.63629612025726</v>
+        <v>7.208267901774085</v>
       </c>
       <c r="O2">
-        <v>12.353418373506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.57996919835864</v>
+      </c>
+      <c r="P2">
+        <v>13.83993983580159</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25813561944909</v>
+        <v>12.62911791233382</v>
       </c>
       <c r="C3">
-        <v>11.06612783933547</v>
+        <v>7.821940247784591</v>
       </c>
       <c r="D3">
-        <v>4.11209315768563</v>
+        <v>5.07017948460537</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.69441259186732</v>
+        <v>22.62654549589848</v>
       </c>
       <c r="G3">
-        <v>19.11927588851013</v>
+        <v>30.77817538589745</v>
       </c>
       <c r="H3">
-        <v>7.550171564808459</v>
+        <v>3.079725334684823</v>
       </c>
       <c r="I3">
-        <v>11.66008434318098</v>
+        <v>3.561546173989515</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.01212925041702</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.22084714080082</v>
       </c>
       <c r="L3">
-        <v>7.811634453018448</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.63374594659138</v>
       </c>
       <c r="N3">
-        <v>11.70211557167551</v>
+        <v>6.987098427036152</v>
       </c>
       <c r="O3">
-        <v>12.14262737688595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.16382877661656</v>
+      </c>
+      <c r="P3">
+        <v>13.97372253535681</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.37661651847258</v>
+        <v>12.0880557654158</v>
       </c>
       <c r="C4">
-        <v>10.86388442061119</v>
+        <v>7.603793139440798</v>
       </c>
       <c r="D4">
-        <v>3.989571622860048</v>
+        <v>5.002338941465284</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.34873161450179</v>
+        <v>22.30854635650516</v>
       </c>
       <c r="G4">
-        <v>18.59591366929238</v>
+        <v>30.32416173643434</v>
       </c>
       <c r="H4">
-        <v>7.544203776067676</v>
+        <v>3.201903817189002</v>
       </c>
       <c r="I4">
-        <v>11.73627887932614</v>
+        <v>3.66862993776272</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.98231263910698</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.1502612764497</v>
       </c>
       <c r="L4">
-        <v>7.628535541378996</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.19069755886019</v>
       </c>
       <c r="N4">
-        <v>11.74614676201159</v>
+        <v>6.847322786373199</v>
       </c>
       <c r="O4">
-        <v>12.02368534360682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.899435147449482</v>
+      </c>
+      <c r="P4">
+        <v>14.05698865976718</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00474119820531</v>
+        <v>11.85464052202337</v>
       </c>
       <c r="C5">
-        <v>10.78034062390195</v>
+        <v>7.517219763787771</v>
       </c>
       <c r="D5">
-        <v>3.938383768261295</v>
+        <v>4.975247360141913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.20937701174305</v>
+        <v>22.17063623303922</v>
       </c>
       <c r="G5">
-        <v>18.38412043748881</v>
+        <v>30.12364602882032</v>
       </c>
       <c r="H5">
-        <v>7.543155475983205</v>
+        <v>3.253166350831369</v>
       </c>
       <c r="I5">
-        <v>11.77019523498667</v>
+        <v>3.716032423754601</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.9680097319075</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.11525817684997</v>
       </c>
       <c r="L5">
-        <v>7.55374954586088</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.00348550127863</v>
       </c>
       <c r="N5">
-        <v>11.76498038642295</v>
+        <v>6.789513203160811</v>
       </c>
       <c r="O5">
-        <v>11.97784261325678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.787860577071612</v>
+      </c>
+      <c r="P5">
+        <v>14.08980835753307</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.94222638849905</v>
+        <v>11.80867832497831</v>
       </c>
       <c r="C6">
-        <v>10.76640299320845</v>
+        <v>7.507572471567597</v>
       </c>
       <c r="D6">
-        <v>3.92980922395554</v>
+        <v>4.97195724925321</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.18633513267661</v>
+        <v>22.13686990235562</v>
       </c>
       <c r="G6">
-        <v>18.34905276745677</v>
+        <v>30.07094990947529</v>
       </c>
       <c r="H6">
-        <v>7.543063688133281</v>
+        <v>3.262182634869079</v>
       </c>
       <c r="I6">
-        <v>11.77599600198701</v>
+        <v>3.727329232098831</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.9622432682001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.10116772448786</v>
       </c>
       <c r="L6">
-        <v>7.541324500864594</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.97109155242965</v>
       </c>
       <c r="N6">
-        <v>11.76816094438066</v>
+        <v>6.779986136432781</v>
       </c>
       <c r="O6">
-        <v>11.97038865496449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.767104414672072</v>
+      </c>
+      <c r="P6">
+        <v>14.09356317711335</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37165255001965</v>
+        <v>12.06688930360115</v>
       </c>
       <c r="C7">
-        <v>10.86276215774528</v>
+        <v>7.615645283551616</v>
       </c>
       <c r="D7">
-        <v>3.988886330361817</v>
+        <v>5.00535309348848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.34684581167261</v>
+        <v>22.27713123957621</v>
       </c>
       <c r="G7">
-        <v>18.5930508615686</v>
+        <v>30.26881992504642</v>
       </c>
       <c r="H7">
-        <v>7.544184093994394</v>
+        <v>3.203762962703646</v>
       </c>
       <c r="I7">
-        <v>11.73672486903104</v>
+        <v>3.678156883386717</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.9727779901286</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.12715906866255</v>
       </c>
       <c r="L7">
-        <v>7.627527490325653</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.18564619593724</v>
       </c>
       <c r="N7">
-        <v>11.74639717749271</v>
+        <v>6.846904728337496</v>
       </c>
       <c r="O7">
-        <v>12.02305647543994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.892267097297303</v>
+      </c>
+      <c r="P7">
+        <v>14.05280049152096</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.1556861596994</v>
+        <v>13.15882108628545</v>
       </c>
       <c r="C8">
-        <v>11.27781863671246</v>
+        <v>8.065711218258958</v>
       </c>
       <c r="D8">
-        <v>4.238422671598689</v>
+        <v>5.145472185395062</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.06784718026894</v>
+        <v>22.92954245025214</v>
       </c>
       <c r="G8">
-        <v>19.68179517438444</v>
+        <v>31.19584926042725</v>
       </c>
       <c r="H8">
-        <v>7.561391078055332</v>
+        <v>2.95459162121632</v>
       </c>
       <c r="I8">
-        <v>11.58898356832347</v>
+        <v>3.462518234398845</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.0339943543889</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.26852137795981</v>
       </c>
       <c r="L8">
-        <v>8.006109670164877</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.08316665276141</v>
       </c>
       <c r="N8">
-        <v>11.65822791374471</v>
+        <v>7.133362192312701</v>
       </c>
       <c r="O8">
-        <v>12.27855913009579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.43124551417021</v>
+      </c>
+      <c r="P8">
+        <v>13.8799285838384</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.25869287714736</v>
+        <v>15.09093223956311</v>
       </c>
       <c r="C9">
-        <v>12.04945506991878</v>
+        <v>8.87492540452906</v>
       </c>
       <c r="D9">
-        <v>4.685487741840404</v>
+        <v>5.399150172779013</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.51370808125242</v>
+        <v>24.26810525329867</v>
       </c>
       <c r="G9">
-        <v>21.83801977943044</v>
+        <v>33.10185542385958</v>
       </c>
       <c r="H9">
-        <v>7.641999606268766</v>
+        <v>2.498099631753437</v>
       </c>
       <c r="I9">
-        <v>11.40105044346645</v>
+        <v>3.060243892580778</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.19176279401198</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.60321376775336</v>
       </c>
       <c r="L9">
-        <v>8.735065053969516</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.66016562557623</v>
       </c>
       <c r="N9">
-        <v>11.51495292073971</v>
+        <v>7.661060415821243</v>
       </c>
       <c r="O9">
-        <v>12.86272672047882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.4225675929996</v>
+      </c>
+      <c r="P9">
+        <v>13.5572355908714</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.30074309941669</v>
+        <v>16.30534130185951</v>
       </c>
       <c r="C10">
-        <v>12.58611767156334</v>
+        <v>9.494125700442137</v>
       </c>
       <c r="D10">
-        <v>4.98673054453168</v>
+        <v>5.59377128823522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.58459733916165</v>
+        <v>25.11231154314184</v>
       </c>
       <c r="G10">
-        <v>23.41867232732307</v>
+        <v>34.24790572360332</v>
       </c>
       <c r="H10">
-        <v>7.732194757107747</v>
+        <v>2.214477605401534</v>
       </c>
       <c r="I10">
-        <v>11.33458575947632</v>
+        <v>2.797319853522204</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.27494647332916</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.74994042490589</v>
       </c>
       <c r="L10">
-        <v>9.257231085298386</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.70028074315961</v>
       </c>
       <c r="N10">
-        <v>11.42910699432541</v>
+        <v>7.892370416525263</v>
       </c>
       <c r="O10">
-        <v>13.34196471525415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.9827924078991</v>
+      </c>
+      <c r="P10">
+        <v>13.30261969077359</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.17888664710869</v>
+        <v>16.38971999019734</v>
       </c>
       <c r="C11">
-        <v>12.82288927970757</v>
+        <v>10.24796287465832</v>
       </c>
       <c r="D11">
-        <v>5.117647990800545</v>
+        <v>5.834448465219499</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.07171291562733</v>
+        <v>24.38507916797588</v>
       </c>
       <c r="G11">
-        <v>24.1342845033234</v>
+        <v>32.8014209709851</v>
       </c>
       <c r="H11">
-        <v>7.780426262835737</v>
+        <v>3.094676072362106</v>
       </c>
       <c r="I11">
-        <v>11.32201917045985</v>
+        <v>2.748556158664112</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.93954839790038</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.93394317556351</v>
       </c>
       <c r="L11">
-        <v>9.490989614297932</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.11860707678048</v>
       </c>
       <c r="N11">
-        <v>11.39459325214076</v>
+        <v>6.909908144045813</v>
       </c>
       <c r="O11">
-        <v>13.57059091060835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.23767171611718</v>
+      </c>
+      <c r="P11">
+        <v>13.02867009212533</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.50417807321599</v>
+        <v>16.22579549838264</v>
       </c>
       <c r="C12">
-        <v>12.91143295715498</v>
+        <v>10.77356973175378</v>
       </c>
       <c r="D12">
-        <v>5.166329695435508</v>
+        <v>6.002297150197759</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.25603203467273</v>
+        <v>23.61778825254438</v>
       </c>
       <c r="G12">
-        <v>24.40460076507469</v>
+        <v>31.38680542393122</v>
       </c>
       <c r="H12">
-        <v>7.799761661579259</v>
+        <v>4.391146550617471</v>
       </c>
       <c r="I12">
-        <v>11.31997821716877</v>
+        <v>2.740067201271504</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.6485672827073</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.25087208084962</v>
       </c>
       <c r="L12">
-        <v>9.578905673090038</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.26385930771412</v>
       </c>
       <c r="N12">
-        <v>11.38220538471696</v>
+        <v>6.153436242604634</v>
       </c>
       <c r="O12">
-        <v>13.65866493493279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.49825996997344</v>
+      </c>
+      <c r="P12">
+        <v>12.8808092247265</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.43444184440543</v>
+        <v>15.82935151319301</v>
       </c>
       <c r="C13">
-        <v>12.89241401099933</v>
+        <v>11.17887644120346</v>
       </c>
       <c r="D13">
-        <v>5.155885164067533</v>
+        <v>6.129399210545468</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.2163438118159</v>
+        <v>22.71652778709945</v>
       </c>
       <c r="G13">
-        <v>24.34641554892202</v>
+        <v>29.81146254658944</v>
       </c>
       <c r="H13">
-        <v>7.795549250856482</v>
+        <v>5.770394081607773</v>
       </c>
       <c r="I13">
-        <v>11.32029408102296</v>
+        <v>2.777535703826618</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.35885860821754</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.5950393843692</v>
       </c>
       <c r="L13">
-        <v>9.559999050817005</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.20932578040339</v>
       </c>
       <c r="N13">
-        <v>11.38484252922523</v>
+        <v>5.566259555834809</v>
       </c>
       <c r="O13">
-        <v>13.63963045226019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.698338393534204</v>
+      </c>
+      <c r="P13">
+        <v>12.81337479689822</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.20579335558472</v>
+        <v>15.4367150359238</v>
       </c>
       <c r="C14">
-        <v>12.83019651005403</v>
+        <v>11.41905017099048</v>
       </c>
       <c r="D14">
-        <v>5.12167104753085</v>
+        <v>6.202174831127653</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.0868804851924</v>
+        <v>22.01184152892899</v>
       </c>
       <c r="G14">
-        <v>24.15653789890968</v>
+        <v>28.61419609782833</v>
       </c>
       <c r="H14">
-        <v>7.781995332883035</v>
+        <v>6.759470209111572</v>
       </c>
       <c r="I14">
-        <v>11.32179577789144</v>
+        <v>2.827369455334591</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.15499432615152</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.1477096657446</v>
       </c>
       <c r="L14">
-        <v>9.498234917781803</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.07965228540965</v>
       </c>
       <c r="N14">
-        <v>11.39356025822242</v>
+        <v>5.287317288174346</v>
       </c>
       <c r="O14">
-        <v>13.57780695524336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.106952208236049</v>
+      </c>
+      <c r="P14">
+        <v>12.80459356830881</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.06479824704568</v>
+        <v>15.28410151858139</v>
       </c>
       <c r="C15">
-        <v>12.7919394630321</v>
+        <v>11.45472085084124</v>
       </c>
       <c r="D15">
-        <v>5.100597142419919</v>
+        <v>6.211601001703655</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.00755844679885</v>
+        <v>21.80285719394136</v>
       </c>
       <c r="G15">
-        <v>24.04014044447245</v>
+        <v>28.27272801010827</v>
       </c>
       <c r="H15">
-        <v>7.773833688307395</v>
+        <v>6.99150414871654</v>
       </c>
       <c r="I15">
-        <v>11.32307479845718</v>
+        <v>2.854448545690143</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.10328658802995</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.03809725357872</v>
       </c>
       <c r="L15">
-        <v>9.460322441326836</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.00393535390553</v>
       </c>
       <c r="N15">
-        <v>11.3989897981722</v>
+        <v>5.238878325055659</v>
       </c>
       <c r="O15">
-        <v>13.54013252015476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.947669582014647</v>
+      </c>
+      <c r="P15">
+        <v>12.81579736401702</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.24233745002519</v>
+        <v>14.79855836299319</v>
       </c>
       <c r="C16">
-        <v>12.57049086409812</v>
+        <v>11.14683821780589</v>
       </c>
       <c r="D16">
-        <v>4.978050380056565</v>
+        <v>6.107266324400228</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.55275035197048</v>
+        <v>21.57111663221674</v>
       </c>
       <c r="G16">
-        <v>23.37182029642549</v>
+        <v>28.01037416390778</v>
       </c>
       <c r="H16">
-        <v>7.729190716063691</v>
+        <v>6.806568582204424</v>
       </c>
       <c r="I16">
-        <v>11.33577767465796</v>
+        <v>2.964606201630662</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.11800875429799</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.09415043477593</v>
       </c>
       <c r="L16">
-        <v>9.241873033829627</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.58517525318313</v>
       </c>
       <c r="N16">
-        <v>11.43145631809757</v>
+        <v>5.236453671917094</v>
       </c>
       <c r="O16">
-        <v>13.32723471137722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.834923743080905</v>
+      </c>
+      <c r="P16">
+        <v>12.9311297689254</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.72481769034581</v>
+        <v>14.64918194085591</v>
       </c>
       <c r="C17">
-        <v>12.43271082393503</v>
+        <v>10.77087824503904</v>
       </c>
       <c r="D17">
-        <v>4.901293648108711</v>
+        <v>5.986570667243766</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.27362740861263</v>
+        <v>21.77794880256889</v>
       </c>
       <c r="G17">
-        <v>22.9608099180885</v>
+        <v>28.46104012812951</v>
       </c>
       <c r="H17">
-        <v>7.703674125650815</v>
+        <v>6.111457260875169</v>
       </c>
       <c r="I17">
-        <v>11.34822157577506</v>
+        <v>3.023601719689408</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.23806896439713</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.3722417485522</v>
       </c>
       <c r="L17">
-        <v>9.106847867073247</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.3290794795237</v>
       </c>
       <c r="N17">
-        <v>11.45255596350747</v>
+        <v>5.35861244607742</v>
       </c>
       <c r="O17">
-        <v>13.19932861440917</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.069094618083607</v>
+      </c>
+      <c r="P17">
+        <v>13.02349344473205</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.42236905713359</v>
+        <v>14.78638007930346</v>
       </c>
       <c r="C18">
-        <v>12.35277378398678</v>
+        <v>10.29497856106455</v>
       </c>
       <c r="D18">
-        <v>4.856569832383449</v>
+        <v>5.839155252717858</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.11308651904381</v>
+        <v>22.40239055749613</v>
       </c>
       <c r="G18">
-        <v>22.72409242787015</v>
+        <v>29.60923168633693</v>
       </c>
       <c r="H18">
-        <v>7.689673476327307</v>
+        <v>4.93677442972063</v>
       </c>
       <c r="I18">
-        <v>11.35703135138773</v>
+        <v>3.032375470652921</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.46874930846958</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.896587862564</v>
       </c>
       <c r="L18">
-        <v>9.028832327230633</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.19187356793383</v>
       </c>
       <c r="N18">
-        <v>11.46511720542303</v>
+        <v>5.731977990994882</v>
       </c>
       <c r="O18">
-        <v>13.12676175931171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.641062730898376</v>
+      </c>
+      <c r="P18">
+        <v>13.12037095768889</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.31914148295081</v>
+        <v>15.10518577485004</v>
       </c>
       <c r="C19">
-        <v>12.32559192589827</v>
+        <v>9.827393515155219</v>
       </c>
       <c r="D19">
-        <v>4.841328772722508</v>
+        <v>5.695604041386279</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.05873517657497</v>
+        <v>23.25937105793913</v>
       </c>
       <c r="G19">
-        <v>22.64389583257565</v>
+        <v>31.13810241432283</v>
       </c>
       <c r="H19">
-        <v>7.685048050067794</v>
+        <v>3.592298867704149</v>
       </c>
       <c r="I19">
-        <v>11.36029260140467</v>
+        <v>3.016168334668444</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.75701678893469</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.55905358427768</v>
       </c>
       <c r="L19">
-        <v>9.002359041255827</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.15929786960957</v>
       </c>
       <c r="N19">
-        <v>11.4694424091595</v>
+        <v>6.42874043467951</v>
       </c>
       <c r="O19">
-        <v>13.10236469699984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.43905551200397</v>
+      </c>
+      <c r="P19">
+        <v>13.22715307030244</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.78040333679442</v>
+        <v>15.94966266963571</v>
       </c>
       <c r="C20">
-        <v>12.44744956035099</v>
+        <v>9.371660364861887</v>
       </c>
       <c r="D20">
-        <v>4.909524193156735</v>
+        <v>5.554574009753606</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.30334123800885</v>
+        <v>24.80291000379783</v>
       </c>
       <c r="G20">
-        <v>23.00459669747878</v>
+        <v>33.79166595723455</v>
       </c>
       <c r="H20">
-        <v>7.706320200966502</v>
+        <v>2.290530094028875</v>
       </c>
       <c r="I20">
-        <v>11.34672460583366</v>
+        <v>2.896307511281676</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.22257372447397</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.63936780473258</v>
       </c>
       <c r="L20">
-        <v>9.12125849101108</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.42831887196466</v>
       </c>
       <c r="N20">
-        <v>11.45026564931527</v>
+        <v>7.827698677765886</v>
       </c>
       <c r="O20">
-        <v>13.21284100386176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.81852725657498</v>
+      </c>
+      <c r="P20">
+        <v>13.35556005432845</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.27314901293087</v>
+        <v>16.94927910668674</v>
       </c>
       <c r="C21">
-        <v>12.84850203423578</v>
+        <v>9.749651340958154</v>
       </c>
       <c r="D21">
-        <v>5.131744918385437</v>
+        <v>5.673185587259369</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.1249118012816</v>
+        <v>25.65997311128737</v>
       </c>
       <c r="G21">
-        <v>24.21232898325739</v>
+        <v>35.04099036030919</v>
       </c>
       <c r="H21">
-        <v>7.785947101831439</v>
+        <v>2.030893655581967</v>
       </c>
       <c r="I21">
-        <v>11.32127952284505</v>
+        <v>2.686534754028454</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.36187874011205</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.92434991327514</v>
       </c>
       <c r="L21">
-        <v>9.516393339058023</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.19719375994253</v>
       </c>
       <c r="N21">
-        <v>11.39098090621446</v>
+        <v>8.206028241830769</v>
       </c>
       <c r="O21">
-        <v>13.59592558776082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.4133250934081</v>
+      </c>
+      <c r="P21">
+        <v>13.1950870701729</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.20656034787019</v>
+        <v>17.57761295385498</v>
       </c>
       <c r="C22">
-        <v>13.10408225375108</v>
+        <v>10.00370820070181</v>
       </c>
       <c r="D22">
-        <v>5.271764390185378</v>
+        <v>5.752914508456263</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.66098650566607</v>
+        <v>26.18656289897132</v>
       </c>
       <c r="G22">
-        <v>24.99768837990165</v>
+        <v>35.79737268679324</v>
       </c>
       <c r="H22">
-        <v>7.844246623782985</v>
+        <v>1.878348294217104</v>
       </c>
       <c r="I22">
-        <v>11.32057265370356</v>
+        <v>2.54298978329005</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.44545163272241</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.08909475208113</v>
       </c>
       <c r="L22">
-        <v>9.771100170753009</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.67988910336033</v>
       </c>
       <c r="N22">
-        <v>11.35622342968401</v>
+        <v>8.37911723217154</v>
       </c>
       <c r="O22">
-        <v>13.8550126485983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.73837948472463</v>
+      </c>
+      <c r="P22">
+        <v>13.08592161658876</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.71221994411055</v>
+        <v>17.26044954166457</v>
       </c>
       <c r="C23">
-        <v>12.9682894118515</v>
+        <v>9.855886448268308</v>
       </c>
       <c r="D23">
-        <v>5.197514312695469</v>
+        <v>5.706628259856142</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.37499202472331</v>
+        <v>25.93576310161961</v>
       </c>
       <c r="G23">
-        <v>24.57893843650867</v>
+        <v>35.44729711629997</v>
       </c>
       <c r="H23">
-        <v>7.812547143388004</v>
+        <v>1.95835802719339</v>
       </c>
       <c r="I23">
-        <v>11.319434523416</v>
+        <v>2.606700256283668</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.41095388231989</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.02594161053665</v>
       </c>
       <c r="L23">
-        <v>9.635499107993294</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.42642624088237</v>
       </c>
       <c r="N23">
-        <v>11.37439908453459</v>
+        <v>8.28667594099212</v>
       </c>
       <c r="O23">
-        <v>13.71594491579951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.571252043631</v>
+      </c>
+      <c r="P23">
+        <v>13.14892513562575</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.755288394235</v>
+        <v>15.99987638940072</v>
       </c>
       <c r="C24">
-        <v>12.44078843275803</v>
+        <v>9.304353476893906</v>
       </c>
       <c r="D24">
-        <v>4.905805017026927</v>
+        <v>5.533569555320464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.289907821328</v>
+        <v>24.93537218419557</v>
       </c>
       <c r="G24">
-        <v>22.98480199556552</v>
+        <v>34.0310218008963</v>
       </c>
       <c r="H24">
-        <v>7.705121828698362</v>
+        <v>2.269648759860939</v>
       </c>
       <c r="I24">
-        <v>11.34739624250408</v>
+        <v>2.875883333723711</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.26966090465814</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.7524178003671</v>
       </c>
       <c r="L24">
-        <v>9.114744651081224</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.42171482712549</v>
       </c>
       <c r="N24">
-        <v>11.45129976078123</v>
+        <v>7.928187577883178</v>
       </c>
       <c r="O24">
-        <v>13.20672903511188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.90924966055842</v>
+      </c>
+      <c r="P24">
+        <v>13.38133123853684</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.46125010320806</v>
+        <v>14.56653812484335</v>
       </c>
       <c r="C25">
-        <v>11.84572523734193</v>
+        <v>8.682877546320743</v>
       </c>
       <c r="D25">
-        <v>4.569237682429157</v>
+        <v>5.338288970340811</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.12032920198517</v>
+        <v>23.85628360779592</v>
       </c>
       <c r="G25">
-        <v>21.2542750808494</v>
+        <v>32.49945423887932</v>
       </c>
       <c r="H25">
-        <v>7.614920400545733</v>
+        <v>2.619913830893359</v>
       </c>
       <c r="I25">
-        <v>11.44002335596154</v>
+        <v>3.181867379258264</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.13037044942809</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.47118740894129</v>
       </c>
       <c r="L25">
-        <v>8.539881233909044</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.24967806843904</v>
       </c>
       <c r="N25">
-        <v>11.55040643427466</v>
+        <v>7.522827987218703</v>
       </c>
       <c r="O25">
-        <v>12.69583118356303</v>
+        <v>11.15387505832588</v>
+      </c>
+      <c r="P25">
+        <v>13.63597799316908</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.46189968553709</v>
+        <v>12.93802555714018</v>
       </c>
       <c r="C2">
-        <v>8.166727481248433</v>
+        <v>8.174394761977135</v>
       </c>
       <c r="D2">
-        <v>5.177667315010725</v>
+        <v>5.203108737819854</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.14739090056527</v>
+        <v>22.11344349428832</v>
       </c>
       <c r="G2">
-        <v>31.51882202222442</v>
+        <v>29.32294729655593</v>
       </c>
       <c r="H2">
-        <v>2.887873548093749</v>
+        <v>2.766078745542075</v>
       </c>
       <c r="I2">
-        <v>3.394476439553794</v>
+        <v>3.24197228465171</v>
       </c>
       <c r="J2">
-        <v>11.06497586001358</v>
+        <v>10.93385614007477</v>
       </c>
       <c r="K2">
-        <v>18.33943252437019</v>
+        <v>17.35002921993022</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.04609857458957</v>
       </c>
       <c r="M2">
-        <v>11.31701859294501</v>
+        <v>11.66879462551347</v>
       </c>
       <c r="N2">
-        <v>7.208267901774085</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.57996919835864</v>
+        <v>11.30082794700112</v>
       </c>
       <c r="P2">
-        <v>13.83993983580159</v>
+        <v>7.339413089510542</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.39637062651837</v>
+      </c>
+      <c r="R2">
+        <v>13.55956641463251</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.62911791233382</v>
+        <v>12.15090446772881</v>
       </c>
       <c r="C3">
-        <v>7.821940247784591</v>
+        <v>7.756636893333102</v>
       </c>
       <c r="D3">
-        <v>5.07017948460537</v>
+        <v>5.068651717743159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.62654549589848</v>
+        <v>21.67968417595832</v>
       </c>
       <c r="G3">
-        <v>30.77817538589745</v>
+        <v>28.78009132554473</v>
       </c>
       <c r="H3">
-        <v>3.079725334684823</v>
+        <v>2.942416887144876</v>
       </c>
       <c r="I3">
-        <v>3.561546173989515</v>
+        <v>3.389073525109679</v>
       </c>
       <c r="J3">
-        <v>11.01212925041702</v>
+        <v>10.87003670678934</v>
       </c>
       <c r="K3">
-        <v>18.22084714080082</v>
+        <v>17.29755127676751</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.11087192476987</v>
       </c>
       <c r="M3">
-        <v>10.63374594659138</v>
+        <v>11.54557028134345</v>
       </c>
       <c r="N3">
-        <v>6.987098427036152</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.16382877661656</v>
+        <v>10.63326503122344</v>
       </c>
       <c r="P3">
-        <v>13.97372253535681</v>
+        <v>7.127538262836309</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.997170616527235</v>
+      </c>
+      <c r="R3">
+        <v>13.69680268055122</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0880557654158</v>
+        <v>11.63829976352918</v>
       </c>
       <c r="C4">
-        <v>7.603793139440798</v>
+        <v>7.49170390080854</v>
       </c>
       <c r="D4">
-        <v>5.002338941465284</v>
+        <v>4.983932411185308</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.30854635650516</v>
+        <v>21.414802569098</v>
       </c>
       <c r="G4">
-        <v>30.32416173643434</v>
+        <v>28.45168054117014</v>
       </c>
       <c r="H4">
-        <v>3.201903817189002</v>
+        <v>3.054788985551948</v>
       </c>
       <c r="I4">
-        <v>3.66862993776272</v>
+        <v>3.483704179540481</v>
       </c>
       <c r="J4">
-        <v>10.98231263910698</v>
+        <v>10.83120445378621</v>
       </c>
       <c r="K4">
-        <v>18.1502612764497</v>
+        <v>17.26661771338016</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.14889163235207</v>
       </c>
       <c r="M4">
-        <v>10.19069755886019</v>
+        <v>11.48662908818292</v>
       </c>
       <c r="N4">
-        <v>6.847322786373199</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.899435147449482</v>
+        <v>10.20048508160244</v>
       </c>
       <c r="P4">
-        <v>14.05698865976718</v>
+        <v>6.994000946025311</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.74331546242386</v>
+      </c>
+      <c r="R4">
+        <v>13.78223057854356</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85464052202337</v>
+        <v>11.41664490516719</v>
       </c>
       <c r="C5">
-        <v>7.517219763787771</v>
+        <v>7.386330400344756</v>
       </c>
       <c r="D5">
-        <v>4.975247360141913</v>
+        <v>4.949989241979152</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.17063623303922</v>
+        <v>21.29865878780506</v>
       </c>
       <c r="G5">
-        <v>30.12364602882032</v>
+        <v>28.30379361846206</v>
       </c>
       <c r="H5">
-        <v>3.253166350831369</v>
+        <v>3.101966172629846</v>
       </c>
       <c r="I5">
-        <v>3.716032423754601</v>
+        <v>3.526412650764167</v>
       </c>
       <c r="J5">
-        <v>10.9680097319075</v>
+        <v>10.81271911293728</v>
       </c>
       <c r="K5">
-        <v>18.11525817684997</v>
+        <v>17.24791348758501</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.15818319543491</v>
       </c>
       <c r="M5">
-        <v>10.00348550127863</v>
+        <v>11.46295466308291</v>
       </c>
       <c r="N5">
-        <v>6.789513203160811</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.787860577071612</v>
+        <v>10.01765315726627</v>
       </c>
       <c r="P5">
-        <v>14.08980835753307</v>
+        <v>6.938867331721594</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.636102891072227</v>
+      </c>
+      <c r="R5">
+        <v>13.81616488061858</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.80867832497831</v>
+        <v>11.37274832345118</v>
       </c>
       <c r="C6">
-        <v>7.507572471567597</v>
+        <v>7.374428779320705</v>
       </c>
       <c r="D6">
-        <v>4.97195724925321</v>
+        <v>4.945675502238899</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.13686990235562</v>
+        <v>21.26881475484199</v>
       </c>
       <c r="G6">
-        <v>30.07094990947529</v>
+        <v>28.26053130404292</v>
       </c>
       <c r="H6">
-        <v>3.262182634869079</v>
+        <v>3.110279554486921</v>
       </c>
       <c r="I6">
-        <v>3.727329232098831</v>
+        <v>3.537496371981872</v>
       </c>
       <c r="J6">
-        <v>10.9622432682001</v>
+        <v>10.80628946675189</v>
       </c>
       <c r="K6">
-        <v>18.10116772448786</v>
+        <v>17.23698974640215</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.15267010759706</v>
       </c>
       <c r="M6">
-        <v>9.97109155242965</v>
+        <v>11.45446929595725</v>
       </c>
       <c r="N6">
-        <v>6.779986136432781</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.767104414672072</v>
+        <v>9.986033448763436</v>
       </c>
       <c r="P6">
-        <v>14.09356317711335</v>
+        <v>6.929790867334004</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.616122939460301</v>
+      </c>
+      <c r="R6">
+        <v>13.82037906533569</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.06688930360115</v>
+        <v>11.61353258075243</v>
       </c>
       <c r="C7">
-        <v>7.615645283551616</v>
+        <v>7.498377801953551</v>
       </c>
       <c r="D7">
-        <v>5.00535309348848</v>
+        <v>4.989688265548168</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.27713123957621</v>
+        <v>21.36598697328662</v>
       </c>
       <c r="G7">
-        <v>30.26881992504642</v>
+        <v>28.47021658241432</v>
       </c>
       <c r="H7">
-        <v>3.203762962703646</v>
+        <v>3.057032081528514</v>
       </c>
       <c r="I7">
-        <v>3.678156883386717</v>
+        <v>3.495265003954497</v>
       </c>
       <c r="J7">
-        <v>10.9727779901286</v>
+        <v>10.77947368311646</v>
       </c>
       <c r="K7">
-        <v>18.12715906866255</v>
+        <v>17.23592408378862</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.12218243662295</v>
       </c>
       <c r="M7">
-        <v>10.18564619593724</v>
+        <v>11.46701933095144</v>
       </c>
       <c r="N7">
-        <v>6.846904728337496</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.892267097297303</v>
+        <v>10.18966925376929</v>
       </c>
       <c r="P7">
-        <v>14.05280049152096</v>
+        <v>6.993533858177982</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.735026212694997</v>
+      </c>
+      <c r="R7">
+        <v>13.77695400409079</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15882108628545</v>
+        <v>12.6384963874378</v>
       </c>
       <c r="C8">
-        <v>8.065711218258958</v>
+        <v>8.028525390198524</v>
       </c>
       <c r="D8">
-        <v>5.145472185395062</v>
+        <v>5.170436446526161</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.92954245025214</v>
+        <v>21.86687103570406</v>
       </c>
       <c r="G8">
-        <v>31.19584926042725</v>
+        <v>29.30240299210861</v>
       </c>
       <c r="H8">
-        <v>2.95459162121632</v>
+        <v>2.828961269491382</v>
       </c>
       <c r="I8">
-        <v>3.462518234398845</v>
+        <v>3.306943103095524</v>
       </c>
       <c r="J8">
-        <v>11.0339943543889</v>
+        <v>10.76192878003699</v>
       </c>
       <c r="K8">
-        <v>18.26852137795981</v>
+        <v>17.27415201063021</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.02092567015639</v>
       </c>
       <c r="M8">
-        <v>11.08316665276141</v>
+        <v>11.58311779151462</v>
       </c>
       <c r="N8">
-        <v>7.133362192312701</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.43124551417021</v>
+        <v>11.05408812158879</v>
       </c>
       <c r="P8">
-        <v>13.8799285838384</v>
+        <v>7.267412580008378</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.24947150929261</v>
+      </c>
+      <c r="R8">
+        <v>13.59603754128715</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.09093223956311</v>
+        <v>14.48567811771025</v>
       </c>
       <c r="C9">
-        <v>8.87492540452906</v>
+        <v>9.001014439827363</v>
       </c>
       <c r="D9">
-        <v>5.399150172779013</v>
+        <v>5.490938150591952</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.26810525329867</v>
+        <v>22.97450346351474</v>
       </c>
       <c r="G9">
-        <v>33.10185542385958</v>
+        <v>30.79231000945094</v>
       </c>
       <c r="H9">
-        <v>2.498099631753437</v>
+        <v>2.410035402455458</v>
       </c>
       <c r="I9">
-        <v>3.060243892580778</v>
+        <v>2.9522276832289</v>
       </c>
       <c r="J9">
-        <v>11.19176279401198</v>
+        <v>10.89851043147829</v>
       </c>
       <c r="K9">
-        <v>18.60321376775336</v>
+        <v>17.43041759427943</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.86830399178253</v>
       </c>
       <c r="M9">
-        <v>12.66016562557623</v>
+        <v>11.98728716154998</v>
       </c>
       <c r="N9">
-        <v>7.661060415821243</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.4225675929996</v>
+        <v>12.59233848939648</v>
       </c>
       <c r="P9">
-        <v>13.5572355908714</v>
+        <v>7.774828392106957</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.19868446401522</v>
+      </c>
+      <c r="R9">
+        <v>13.2630877672029</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.30534130185951</v>
+        <v>15.66076080772362</v>
       </c>
       <c r="C10">
-        <v>9.494125700442137</v>
+        <v>9.696852700021608</v>
       </c>
       <c r="D10">
-        <v>5.59377128823522</v>
+        <v>5.746665130871793</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.11231154314184</v>
+        <v>23.570434716055</v>
       </c>
       <c r="G10">
-        <v>34.24790572360332</v>
+        <v>32.0674465903347</v>
       </c>
       <c r="H10">
-        <v>2.214477605401534</v>
+        <v>2.154711581568323</v>
       </c>
       <c r="I10">
-        <v>2.797319853522204</v>
+        <v>2.726456189809634</v>
       </c>
       <c r="J10">
-        <v>11.27494647332916</v>
+        <v>10.7319685575559</v>
       </c>
       <c r="K10">
-        <v>18.74994042490589</v>
+        <v>17.40939678495531</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.64361072584301</v>
       </c>
       <c r="M10">
-        <v>13.70028074315961</v>
+        <v>12.2419244003874</v>
       </c>
       <c r="N10">
-        <v>7.892370416525263</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.9827924078991</v>
+        <v>13.58080800022033</v>
       </c>
       <c r="P10">
-        <v>13.30261969077359</v>
+        <v>7.993397035866689</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.72558091089115</v>
+      </c>
+      <c r="R10">
+        <v>12.99996954426897</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38971999019734</v>
+        <v>15.73973130804807</v>
       </c>
       <c r="C11">
-        <v>10.24796287465832</v>
+        <v>10.42868745675879</v>
       </c>
       <c r="D11">
-        <v>5.834448465219499</v>
+        <v>6.039950793573672</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.38507916797588</v>
+        <v>22.69849365867328</v>
       </c>
       <c r="G11">
-        <v>32.8014209709851</v>
+        <v>31.55366560024445</v>
       </c>
       <c r="H11">
-        <v>3.094676072362106</v>
+        <v>3.059076606768897</v>
       </c>
       <c r="I11">
-        <v>2.748556158664112</v>
+        <v>2.69468920467857</v>
       </c>
       <c r="J11">
-        <v>10.93954839790038</v>
+        <v>9.994922038636028</v>
       </c>
       <c r="K11">
-        <v>17.93394317556351</v>
+        <v>16.57923001072318</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.9589110039257</v>
       </c>
       <c r="M11">
-        <v>14.11860707678048</v>
+        <v>11.70091174119549</v>
       </c>
       <c r="N11">
-        <v>6.909908144045813</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.23767171611718</v>
+        <v>13.94121686101104</v>
       </c>
       <c r="P11">
-        <v>13.02867009212533</v>
+        <v>7.002602452011909</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.97937413712116</v>
+      </c>
+      <c r="R11">
+        <v>12.77645624946296</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.22579549838264</v>
+        <v>15.59810294632001</v>
       </c>
       <c r="C12">
-        <v>10.77356973175378</v>
+        <v>10.92388851634001</v>
       </c>
       <c r="D12">
-        <v>6.002297150197759</v>
+        <v>6.229263440869608</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.61778825254438</v>
+        <v>21.92145903426748</v>
       </c>
       <c r="G12">
-        <v>31.38680542393122</v>
+        <v>30.6594241124991</v>
       </c>
       <c r="H12">
-        <v>4.391146550617471</v>
+        <v>4.366651384877375</v>
       </c>
       <c r="I12">
-        <v>2.740067201271504</v>
+        <v>2.688769982426644</v>
       </c>
       <c r="J12">
-        <v>10.6485672827073</v>
+        <v>9.582487237877652</v>
       </c>
       <c r="K12">
-        <v>17.25087208084962</v>
+        <v>15.95460905672022</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.49411654615817</v>
       </c>
       <c r="M12">
-        <v>14.26385930771412</v>
+        <v>11.23226962601897</v>
       </c>
       <c r="N12">
-        <v>6.153436242604634</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.49825996997344</v>
+        <v>14.06403691982545</v>
       </c>
       <c r="P12">
-        <v>12.8808092247265</v>
+        <v>6.23911406400443</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.2504932153232</v>
+      </c>
+      <c r="R12">
+        <v>12.67846224279877</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.82935151319301</v>
+        <v>15.26122208433211</v>
       </c>
       <c r="C13">
-        <v>11.17887644120346</v>
+        <v>11.31659150897526</v>
       </c>
       <c r="D13">
-        <v>6.129399210545468</v>
+        <v>6.346797795660389</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.71652778709945</v>
+        <v>21.1571401828063</v>
       </c>
       <c r="G13">
-        <v>29.81146254658944</v>
+        <v>29.1541482744785</v>
       </c>
       <c r="H13">
-        <v>5.770394081607773</v>
+        <v>5.749183509328842</v>
       </c>
       <c r="I13">
-        <v>2.777535703826618</v>
+        <v>2.719631849077358</v>
       </c>
       <c r="J13">
-        <v>10.35885860821754</v>
+        <v>9.426223438724346</v>
       </c>
       <c r="K13">
-        <v>16.5950393843692</v>
+        <v>15.43396104469597</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.14404469603894</v>
       </c>
       <c r="M13">
-        <v>14.20932578040339</v>
+        <v>10.78571667169572</v>
       </c>
       <c r="N13">
-        <v>5.566259555834809</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.698338393534204</v>
+        <v>14.02425249191959</v>
       </c>
       <c r="P13">
-        <v>12.81337479689822</v>
+        <v>5.64642043931194</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.473377681953036</v>
+      </c>
+      <c r="R13">
+        <v>12.65837671386094</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.4367150359238</v>
+        <v>14.92785988260301</v>
       </c>
       <c r="C14">
-        <v>11.41905017099048</v>
+        <v>11.55717060385429</v>
       </c>
       <c r="D14">
-        <v>6.202174831127653</v>
+        <v>6.398127511452216</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.01184152892899</v>
+        <v>20.61283722493625</v>
       </c>
       <c r="G14">
-        <v>28.61419609782833</v>
+        <v>27.81397242098941</v>
       </c>
       <c r="H14">
-        <v>6.759470209111572</v>
+        <v>6.738600807896226</v>
       </c>
       <c r="I14">
-        <v>2.827369455334591</v>
+        <v>2.761339312466084</v>
       </c>
       <c r="J14">
-        <v>10.15499432615152</v>
+        <v>9.413894592056669</v>
       </c>
       <c r="K14">
-        <v>16.1477096657446</v>
+        <v>15.11109798345092</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.94183677127816</v>
       </c>
       <c r="M14">
-        <v>14.07965228540965</v>
+        <v>10.48272448856577</v>
       </c>
       <c r="N14">
-        <v>5.287317288174346</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.106952208236049</v>
+        <v>13.92150713526332</v>
       </c>
       <c r="P14">
-        <v>12.80459356830881</v>
+        <v>5.364556390216051</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.903329108019728</v>
+      </c>
+      <c r="R14">
+        <v>12.67742126243121</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.28410151858139</v>
+        <v>14.79746610708712</v>
       </c>
       <c r="C15">
-        <v>11.45472085084124</v>
+        <v>11.59825444099081</v>
       </c>
       <c r="D15">
-        <v>6.211601001703655</v>
+        <v>6.396212901862549</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.80285719394136</v>
+        <v>20.47059465837008</v>
       </c>
       <c r="G15">
-        <v>28.27272801010827</v>
+        <v>27.35803943217934</v>
       </c>
       <c r="H15">
-        <v>6.99150414871654</v>
+        <v>6.970044228297064</v>
       </c>
       <c r="I15">
-        <v>2.854448545690143</v>
+        <v>2.785249457767438</v>
       </c>
       <c r="J15">
-        <v>10.10328658802995</v>
+        <v>9.450762778955346</v>
       </c>
       <c r="K15">
-        <v>16.03809725357872</v>
+        <v>15.0446317872501</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.90608843411879</v>
       </c>
       <c r="M15">
-        <v>14.00393535390553</v>
+        <v>10.4090690268655</v>
       </c>
       <c r="N15">
-        <v>5.238878325055659</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.947669582014647</v>
+        <v>13.85961512217818</v>
       </c>
       <c r="P15">
-        <v>12.81579736401702</v>
+        <v>5.316505801608232</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.751492693159509</v>
+      </c>
+      <c r="R15">
+        <v>12.69376309777746</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.79855836299319</v>
+        <v>14.37708570594222</v>
       </c>
       <c r="C16">
-        <v>11.14683821780589</v>
+        <v>11.33087372392838</v>
       </c>
       <c r="D16">
-        <v>6.107266324400228</v>
+        <v>6.240724463873922</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.57111663221674</v>
+        <v>20.46643170951758</v>
       </c>
       <c r="G16">
-        <v>28.01037416390778</v>
+        <v>26.45213713991315</v>
       </c>
       <c r="H16">
-        <v>6.806568582204424</v>
+        <v>6.778198369761222</v>
       </c>
       <c r="I16">
-        <v>2.964606201630662</v>
+        <v>2.877917266555602</v>
       </c>
       <c r="J16">
-        <v>10.11800875429799</v>
+        <v>9.824009450900888</v>
       </c>
       <c r="K16">
-        <v>16.09415043477593</v>
+        <v>15.20497225853385</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.06816347457669</v>
       </c>
       <c r="M16">
-        <v>13.58517525318313</v>
+        <v>10.44965233759147</v>
       </c>
       <c r="N16">
-        <v>5.236453671917094</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.834923743080905</v>
+        <v>13.50185925045421</v>
       </c>
       <c r="P16">
-        <v>12.9311297689254</v>
+        <v>5.325899185339744</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.657288272075444</v>
+      </c>
+      <c r="R16">
+        <v>12.79655879319767</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.64918194085591</v>
+        <v>14.22871642618198</v>
       </c>
       <c r="C17">
-        <v>10.77087824503904</v>
+        <v>10.97306587317234</v>
       </c>
       <c r="D17">
-        <v>5.986570667243766</v>
+        <v>6.098096580306771</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.77794880256889</v>
+        <v>20.73715676270837</v>
       </c>
       <c r="G17">
-        <v>28.46104012812951</v>
+        <v>26.58336242279154</v>
       </c>
       <c r="H17">
-        <v>6.111457260875169</v>
+        <v>6.076179697154847</v>
       </c>
       <c r="I17">
-        <v>3.023601719689408</v>
+        <v>2.928533750273979</v>
       </c>
       <c r="J17">
-        <v>10.23806896439713</v>
+        <v>10.08483859197739</v>
       </c>
       <c r="K17">
-        <v>16.3722417485522</v>
+        <v>15.4909535535974</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.30345502772688</v>
       </c>
       <c r="M17">
-        <v>13.3290794795237</v>
+        <v>10.62934584276841</v>
       </c>
       <c r="N17">
-        <v>5.35861244607742</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.069094618083607</v>
+        <v>13.27094756260125</v>
       </c>
       <c r="P17">
-        <v>13.02349344473205</v>
+        <v>5.457506633739225</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.893065464893398</v>
+      </c>
+      <c r="R17">
+        <v>12.86962877804226</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.78638007930346</v>
+        <v>14.32425938425877</v>
       </c>
       <c r="C18">
-        <v>10.29497856106455</v>
+        <v>10.50771132746688</v>
       </c>
       <c r="D18">
-        <v>5.839155252717858</v>
+        <v>5.943941001968887</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.40239055749613</v>
+        <v>21.32814832176943</v>
       </c>
       <c r="G18">
-        <v>29.60923168633693</v>
+        <v>27.49916016822377</v>
       </c>
       <c r="H18">
-        <v>4.93677442972063</v>
+        <v>4.892113369828818</v>
       </c>
       <c r="I18">
-        <v>3.032375470652921</v>
+        <v>2.933486791212595</v>
       </c>
       <c r="J18">
-        <v>10.46874930846958</v>
+        <v>10.35018963945623</v>
       </c>
       <c r="K18">
-        <v>16.896587862564</v>
+        <v>15.95692168393684</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.66214287209805</v>
       </c>
       <c r="M18">
-        <v>13.19187356793383</v>
+        <v>10.97187944550154</v>
       </c>
       <c r="N18">
-        <v>5.731977990994882</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.641062730898376</v>
+        <v>13.14030154871694</v>
       </c>
       <c r="P18">
-        <v>13.12037095768889</v>
+        <v>5.837395150905508</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.454546879682406</v>
+      </c>
+      <c r="R18">
+        <v>12.93667890291362</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.10518577485004</v>
+        <v>14.58496930261401</v>
       </c>
       <c r="C19">
-        <v>9.827393515155219</v>
+        <v>10.04520661749846</v>
       </c>
       <c r="D19">
-        <v>5.695604041386279</v>
+        <v>5.802295748319797</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.25937105793913</v>
+        <v>22.0930991066252</v>
       </c>
       <c r="G19">
-        <v>31.13810241432283</v>
+        <v>28.82418002729167</v>
       </c>
       <c r="H19">
-        <v>3.592298867704149</v>
+        <v>3.534070404770231</v>
       </c>
       <c r="I19">
-        <v>3.016168334668444</v>
+        <v>2.921166745399164</v>
       </c>
       <c r="J19">
-        <v>10.75701678893469</v>
+        <v>10.61528778487557</v>
       </c>
       <c r="K19">
-        <v>17.55905358427768</v>
+        <v>16.5196505443006</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.08435349232763</v>
       </c>
       <c r="M19">
-        <v>13.15929786960957</v>
+        <v>11.40648608524331</v>
       </c>
       <c r="N19">
-        <v>6.42874043467951</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.43905551200397</v>
+        <v>13.10312002673688</v>
       </c>
       <c r="P19">
-        <v>13.22715307030244</v>
+        <v>6.536399426708645</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.23435416240715</v>
+      </c>
+      <c r="R19">
+        <v>13.00524844805902</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.94966266963571</v>
+        <v>15.32916860844457</v>
       </c>
       <c r="C20">
-        <v>9.371660364861887</v>
+        <v>9.582828096697302</v>
       </c>
       <c r="D20">
-        <v>5.554574009753606</v>
+        <v>5.683745111385152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.80291000379783</v>
+        <v>23.38901350910187</v>
       </c>
       <c r="G20">
-        <v>33.79166595723455</v>
+        <v>31.34475909490424</v>
       </c>
       <c r="H20">
-        <v>2.290530094028875</v>
+        <v>2.221768727924907</v>
       </c>
       <c r="I20">
-        <v>2.896307511281676</v>
+        <v>2.819494522225904</v>
       </c>
       <c r="J20">
-        <v>11.22257372447397</v>
+        <v>10.88946303497593</v>
       </c>
       <c r="K20">
-        <v>18.63936780473258</v>
+        <v>17.37949216870587</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.67648472408083</v>
       </c>
       <c r="M20">
-        <v>13.42831887196466</v>
+        <v>12.14392436799466</v>
       </c>
       <c r="N20">
-        <v>7.827698677765886</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.81852725657498</v>
+        <v>13.33910133884621</v>
       </c>
       <c r="P20">
-        <v>13.35556005432845</v>
+        <v>7.932065100874643</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.57445402670216</v>
+      </c>
+      <c r="R20">
+        <v>13.06397469295456</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94927910668674</v>
+        <v>16.20418264867109</v>
       </c>
       <c r="C21">
-        <v>9.749651340958154</v>
+        <v>9.900558704539977</v>
       </c>
       <c r="D21">
-        <v>5.673185587259369</v>
+        <v>5.894803453809694</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.65997311128737</v>
+        <v>23.7231396802257</v>
       </c>
       <c r="G21">
-        <v>35.04099036030919</v>
+        <v>33.9022306689979</v>
       </c>
       <c r="H21">
-        <v>2.030893655581967</v>
+        <v>1.991113488545744</v>
       </c>
       <c r="I21">
-        <v>2.686534754028454</v>
+        <v>2.646711547550764</v>
       </c>
       <c r="J21">
-        <v>11.36187874011205</v>
+        <v>10.11669402297004</v>
       </c>
       <c r="K21">
-        <v>18.92434991327514</v>
+        <v>17.34718955106903</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.49445367549141</v>
       </c>
       <c r="M21">
-        <v>14.19719375994253</v>
+        <v>12.33959195481634</v>
       </c>
       <c r="N21">
-        <v>8.206028241830769</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.4133250934081</v>
+        <v>13.98292893853955</v>
       </c>
       <c r="P21">
-        <v>13.1950870701729</v>
+        <v>8.301511369771253</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.11940696937978</v>
+      </c>
+      <c r="R21">
+        <v>12.85907846768565</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.57761295385498</v>
+        <v>16.73945459014701</v>
       </c>
       <c r="C22">
-        <v>10.00370820070181</v>
+        <v>10.11017981476281</v>
       </c>
       <c r="D22">
-        <v>5.752914508456263</v>
+        <v>6.037730963071463</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.18656289897132</v>
+        <v>23.89577293637121</v>
       </c>
       <c r="G22">
-        <v>35.79737268679324</v>
+        <v>35.62285515446195</v>
       </c>
       <c r="H22">
-        <v>1.878348294217104</v>
+        <v>1.857083981284408</v>
       </c>
       <c r="I22">
-        <v>2.54298978329005</v>
+        <v>2.524365867159539</v>
       </c>
       <c r="J22">
-        <v>11.44545163272241</v>
+        <v>9.599880947731172</v>
       </c>
       <c r="K22">
-        <v>19.08909475208113</v>
+        <v>17.29675342832803</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.35553158834905</v>
       </c>
       <c r="M22">
-        <v>14.67988910336033</v>
+        <v>12.45098533112029</v>
       </c>
       <c r="N22">
-        <v>8.37911723217154</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.73837948472463</v>
+        <v>14.38214037803686</v>
       </c>
       <c r="P22">
-        <v>13.08592161658876</v>
+        <v>8.469612922048848</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.41239332895074</v>
+      </c>
+      <c r="R22">
+        <v>12.72172446316065</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.26044954166457</v>
+        <v>16.47900881336037</v>
       </c>
       <c r="C23">
-        <v>9.855886448268308</v>
+        <v>9.998885999782749</v>
       </c>
       <c r="D23">
-        <v>5.706628259856142</v>
+        <v>5.95070396020955</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.93576310161961</v>
+        <v>23.8756800003098</v>
       </c>
       <c r="G23">
-        <v>35.44729711629997</v>
+        <v>34.58212104926252</v>
       </c>
       <c r="H23">
-        <v>1.95835802719339</v>
+        <v>1.926465903951394</v>
       </c>
       <c r="I23">
-        <v>2.606700256283668</v>
+        <v>2.57362717425091</v>
       </c>
       <c r="J23">
-        <v>11.41095388231989</v>
+        <v>9.969026600635273</v>
       </c>
       <c r="K23">
-        <v>19.02594161053665</v>
+        <v>17.3690572201238</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.46136324648591</v>
       </c>
       <c r="M23">
-        <v>14.42642624088237</v>
+        <v>12.42797594952034</v>
       </c>
       <c r="N23">
-        <v>8.28667594099212</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.571252043631</v>
+        <v>14.18442564146184</v>
       </c>
       <c r="P23">
-        <v>13.14892513562575</v>
+        <v>8.379678195163267</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.26498448696254</v>
+      </c>
+      <c r="R23">
+        <v>12.80163698562164</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.99987638940072</v>
+        <v>15.37354798805937</v>
       </c>
       <c r="C24">
-        <v>9.304353476893906</v>
+        <v>9.510171637904465</v>
       </c>
       <c r="D24">
-        <v>5.533569555320464</v>
+        <v>5.661192541412614</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.93537218419557</v>
+        <v>23.51351559574737</v>
       </c>
       <c r="G24">
-        <v>34.0310218008963</v>
+        <v>31.55255373419246</v>
       </c>
       <c r="H24">
-        <v>2.269648759860939</v>
+        <v>2.200933865870325</v>
       </c>
       <c r="I24">
-        <v>2.875883333723711</v>
+        <v>2.795823340031256</v>
       </c>
       <c r="J24">
-        <v>11.26966090465814</v>
+        <v>10.93841035793179</v>
       </c>
       <c r="K24">
-        <v>18.7524178003671</v>
+        <v>17.48063881537341</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.75376408930079</v>
       </c>
       <c r="M24">
-        <v>13.42171482712549</v>
+        <v>12.22018188392523</v>
       </c>
       <c r="N24">
-        <v>7.928187577883178</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.90924966055842</v>
+        <v>13.33264587251164</v>
       </c>
       <c r="P24">
-        <v>13.38133123853684</v>
+        <v>8.032703422611547</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.66336760778563</v>
+      </c>
+      <c r="R24">
+        <v>13.08289409469332</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.56653812484335</v>
+        <v>13.9757651963713</v>
       </c>
       <c r="C25">
-        <v>8.682877546320743</v>
+        <v>8.779718097328988</v>
       </c>
       <c r="D25">
-        <v>5.338288970340811</v>
+        <v>5.409440496783727</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.85628360779592</v>
+        <v>22.65128419509994</v>
       </c>
       <c r="G25">
-        <v>32.49945423887932</v>
+        <v>30.20365088090444</v>
       </c>
       <c r="H25">
-        <v>2.619913830893359</v>
+        <v>2.521185038662209</v>
       </c>
       <c r="I25">
-        <v>3.181867379258264</v>
+        <v>3.063253379680619</v>
       </c>
       <c r="J25">
-        <v>11.13037044942809</v>
+        <v>10.90385354649864</v>
       </c>
       <c r="K25">
-        <v>18.47118740894129</v>
+        <v>17.36265146091775</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.89223554770349</v>
       </c>
       <c r="M25">
-        <v>12.24967806843904</v>
+        <v>11.84652177543741</v>
       </c>
       <c r="N25">
-        <v>7.522827987218703</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.15387505832588</v>
+        <v>12.19923370435837</v>
       </c>
       <c r="P25">
-        <v>13.63597799316908</v>
+        <v>7.641720334726639</v>
       </c>
       <c r="Q25">
+        <v>10.943117413174</v>
+      </c>
+      <c r="R25">
+        <v>13.34868794814249</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
